--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -214,12 +214,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -234,6 +228,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,30 +555,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -587,24 +587,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -613,21 +613,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1638</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8">
         <f>C4/F4</f>
         <v>819</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -642,26 +642,26 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>4768</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8">
         <f>C5/F5</f>
         <v>681.14285714285711</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="12">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="10">
         <f>L4+M4</f>
         <v>22994</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -670,21 +670,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>8167</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>680.58333333333337</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -693,21 +693,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>28027</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>42</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
+      <c r="G7" s="7"/>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>667.30952380952385</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -716,21 +716,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
-        <v>28027</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="C8" s="7">
+        <v>28065</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>43</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>651.79069767441865</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>652.67441860465112</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -739,21 +739,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>627</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <v>43</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>14.581395348837209</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -762,21 +762,21 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>128</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -785,21 +785,21 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>5512</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
+      <c r="G11" s="7"/>
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -808,21 +808,21 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>3516</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>6</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -831,21 +831,21 @@
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>61058</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>114</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -854,21 +854,21 @@
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>22994</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>42</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10">
+      <c r="G14" s="7"/>
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -877,21 +877,21 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>42249</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>78</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10">
+      <c r="G15" s="7"/>
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -900,249 +900,268 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>1332</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10">
+      <c r="G16" s="7"/>
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10" t="e">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10" t="e">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10" t="e">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10" t="e">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10" t="e">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10" t="e">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10" t="e">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10" t="e">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10" t="e">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10" t="e">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10" t="e">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10" t="e">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="e">
         <f t="shared" ref="H28" si="1">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -1159,50 +1178,31 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -217,6 +217,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -228,12 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,30 +555,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -587,24 +587,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -622,12 +622,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f>C4/F4</f>
         <v>819</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -651,17 +651,17 @@
         <v>7</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f>C5/F5</f>
         <v>681.14285714285711</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="10">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="12">
         <f>L4+M4</f>
         <v>22994</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -679,12 +679,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>680.58333333333337</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -702,12 +702,12 @@
         <v>42</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>667.30952380952385</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>28065</v>
+        <v>28282</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -725,12 +725,12 @@
         <v>43</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>652.67441860465112</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>657.72093023255809</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -748,12 +748,12 @@
         <v>43</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>14.581395348837209</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -771,12 +771,12 @@
         <v>128</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -794,12 +794,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -817,12 +817,12 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -840,12 +840,12 @@
         <v>114</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -863,12 +863,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -886,12 +886,12 @@
         <v>78</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -909,12 +909,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -926,12 +926,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="8" t="e">
+      <c r="H17" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -943,12 +943,12 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8" t="e">
+      <c r="H18" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -960,12 +960,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8" t="e">
+      <c r="H19" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -977,12 +977,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="8" t="e">
+      <c r="H20" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -994,12 +994,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="e">
+      <c r="H21" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1011,12 +1011,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8" t="e">
+      <c r="H22" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1028,12 +1028,12 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="8" t="e">
+      <c r="H23" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1045,12 +1045,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8" t="e">
+      <c r="H24" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1062,12 +1062,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8" t="e">
+      <c r="H25" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1079,12 +1079,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8" t="e">
+      <c r="H26" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1096,12 +1096,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1113,20 +1113,72 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="e">
+      <c r="H28" s="10" t="e">
         <f t="shared" ref="H28" si="1">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="C3:E3"/>
@@ -1143,66 +1195,14 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -217,12 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -234,6 +228,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +539,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,30 +555,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -587,24 +587,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -622,12 +622,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f>C4/F4</f>
-        <v>819</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+        <v>821</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>4768</v>
+        <v>4782</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -651,17 +651,17 @@
         <v>7</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>C5/F5</f>
-        <v>681.14285714285711</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="12">
+        <v>683.14285714285711</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="10">
         <f>L4+M4</f>
         <v>22994</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>8167</v>
+        <v>8191</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -679,12 +679,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
-        <v>680.58333333333337</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+        <v>682.58333333333337</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -702,12 +702,12 @@
         <v>42</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>667.30952380952385</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>28282</v>
+        <v>28661</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -725,12 +725,12 @@
         <v>43</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>657.72093023255809</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>666.53488372093022</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -748,12 +748,12 @@
         <v>43</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>14.581395348837209</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -771,12 +771,12 @@
         <v>128</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -794,12 +794,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -817,12 +817,12 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -840,12 +840,12 @@
         <v>114</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -863,12 +863,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -886,12 +886,12 @@
         <v>78</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -909,12 +909,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -926,12 +926,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="10" t="e">
+      <c r="H17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -943,12 +943,12 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="10" t="e">
+      <c r="H18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -960,12 +960,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="10" t="e">
+      <c r="H19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -977,12 +977,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="10" t="e">
+      <c r="H20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -994,12 +994,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="10" t="e">
+      <c r="H21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1011,12 +1011,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="10" t="e">
+      <c r="H22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1028,12 +1028,12 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="10" t="e">
+      <c r="H23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1045,12 +1045,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="10" t="e">
+      <c r="H24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1062,12 +1062,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="10" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1079,12 +1079,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="10" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1096,12 +1096,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="10" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1113,15 +1113,80 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="10" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" ref="H28" si="1">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
@@ -1138,71 +1203,6 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>4-7 Beg Par</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +117,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,11 +223,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,6 +288,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -229,10 +306,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,30 +641,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -587,24 +673,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -622,17 +708,17 @@
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f>C4/F4</f>
         <v>821</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="L4" s="6">
-        <v>11599</v>
+        <v>72845</v>
       </c>
       <c r="M4" s="6">
-        <v>11395</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -651,17 +737,18 @@
         <v>7</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f>C5/F5</f>
         <v>683.14285714285711</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="10">
-        <f>L4+M4</f>
-        <v>22994</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="6">
+        <v>77987</v>
+      </c>
+      <c r="M5" s="6">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -679,12 +766,18 @@
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>682.58333333333337</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="L6" s="6">
+        <v>13463</v>
+      </c>
+      <c r="M6" s="6">
+        <v>78624</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -702,12 +795,18 @@
         <v>42</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>667.30952380952385</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="L7" s="6">
+        <v>16551</v>
+      </c>
+      <c r="M7" s="6">
+        <v>9256</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -725,12 +824,18 @@
         <v>43</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>666.53488372093022</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="L8" s="6">
+        <v>4515</v>
+      </c>
+      <c r="M8" s="6">
+        <v>32456</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -740,20 +845,26 @@
         <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>14.581395348837209</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="L9" s="6">
+        <v>4668</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4564</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -768,15 +879,20 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="12">
+        <f>SUM(L4:M9)</f>
+        <v>319787</v>
+      </c>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -794,12 +910,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -817,12 +933,12 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -840,12 +956,12 @@
         <v>114</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -863,12 +979,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -886,12 +1002,12 @@
         <v>78</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -909,12 +1025,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -926,12 +1042,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -943,12 +1059,12 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -960,12 +1076,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -977,12 +1093,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -994,12 +1110,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1011,12 +1127,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1028,12 +1144,12 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1045,12 +1161,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1062,12 +1178,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1079,12 +1195,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="H26" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1096,12 +1212,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="H27" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1113,23 +1229,171 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="e">
-        <f t="shared" ref="H28" si="1">C28/F28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="H28" s="10" t="e">
+        <f t="shared" ref="H28:H30" si="1">C28/F28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10" t="e">
+        <f t="shared" ref="H31" si="2">C31/F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16">
+        <f>SUM(C4:C31)</f>
+        <v>207964</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16">
+        <f>SUM(F4:F31)</f>
+        <v>358</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
+        <f>C32/F32</f>
+        <v>580.90502793296093</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+  <mergeCells count="94">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="C3:E3"/>
@@ -1146,63 +1410,14 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -288,17 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,19 +297,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +625,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H16" sqref="H16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,30 +641,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -673,24 +673,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="L3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -708,17 +708,17 @@
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f>C4/F4</f>
         <v>821</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="6">
-        <v>72845</v>
+        <v>21</v>
       </c>
       <c r="M4" s="6">
-        <v>4812</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -737,18 +737,14 @@
         <v>7</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>C5/F5</f>
         <v>683.14285714285711</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="6">
-        <v>77987</v>
-      </c>
-      <c r="M5" s="6">
-        <v>46</v>
-      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -766,18 +762,14 @@
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>682.58333333333337</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="6">
-        <v>13463</v>
-      </c>
-      <c r="M6" s="6">
-        <v>78624</v>
-      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -795,18 +787,14 @@
         <v>42</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>667.30952380952385</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="L7" s="6">
-        <v>16551</v>
-      </c>
-      <c r="M7" s="6">
-        <v>9256</v>
-      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -824,18 +812,14 @@
         <v>43</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>666.53488372093022</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="L8" s="6">
-        <v>4515</v>
-      </c>
-      <c r="M8" s="6">
-        <v>32456</v>
-      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -853,18 +837,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="L9" s="6">
-        <v>4668</v>
-      </c>
-      <c r="M9" s="6">
-        <v>4564</v>
-      </c>
+      <c r="H9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -882,17 +862,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="12">
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="9">
         <f>SUM(L4:M9)</f>
-        <v>319787</v>
-      </c>
-      <c r="M10" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -910,12 +890,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -933,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -956,12 +936,12 @@
         <v>114</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -979,12 +959,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1002,12 +982,12 @@
         <v>78</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1025,12 +1005,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1042,12 +1022,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1059,12 +1039,12 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="H18" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1076,12 +1056,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1093,12 +1073,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1110,12 +1090,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1127,12 +1107,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="H22" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1144,12 +1124,12 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="H23" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1161,12 +1141,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1178,12 +1158,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="H25" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1195,12 +1175,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="H26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1212,12 +1192,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1229,12 +1209,12 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="10" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" ref="H28:H30" si="1">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1246,12 +1226,12 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="10" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1263,12 +1243,12 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="10" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1280,88 +1260,87 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="10" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" ref="H31" si="2">C31/F31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16">
+      <c r="B32" s="13"/>
+      <c r="C32" s="11">
         <f>SUM(C4:C31)</f>
         <v>207964</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11">
         <f>SUM(F4:F31)</f>
         <v>358</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
         <f>C32/F32</f>
         <v>580.90502793296093</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -1378,46 +1357,47 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -288,13 +288,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,14 +315,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +625,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,30 +641,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -673,24 +673,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="16" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -708,12 +708,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f>C4/F4</f>
-        <v>821</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>824</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>4782</v>
+        <v>4793</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -737,12 +737,12 @@
         <v>7</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f>C5/F5</f>
-        <v>683.14285714285711</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>684.71428571428567</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -762,12 +762,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>682.58333333333337</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>28027</v>
+        <v>28029</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -787,12 +787,12 @@
         <v>42</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>667.30952380952385</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>667.35714285714289</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>28661</v>
+        <v>28663</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -812,12 +812,12 @@
         <v>43</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>666.53488372093022</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>666.58139534883719</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -862,17 +862,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="9">
+      <c r="H10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="17">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -890,12 +890,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>551.20000000000005</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -913,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -936,12 +936,12 @@
         <v>114</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -959,12 +959,12 @@
         <v>42</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -982,12 +982,12 @@
         <v>78</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="7">
-        <v>1332</v>
+        <v>1303</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1005,12 +1005,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>666</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>651.5</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1022,12 +1022,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1039,12 +1039,12 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1056,12 +1056,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1073,12 +1073,12 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1090,12 +1090,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1107,12 +1107,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1124,12 +1124,12 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1141,12 +1141,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1158,12 +1158,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1175,12 +1175,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="H26" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1192,12 +1192,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="H27" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1209,12 +1209,12 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="e">
+      <c r="H28" s="10" t="e">
         <f t="shared" ref="H28:H30" si="1">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1226,12 +1226,12 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1243,12 +1243,12 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="8" t="e">
+      <c r="H30" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1260,71 +1260,107 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8" t="e">
+      <c r="H31" s="10" t="e">
         <f t="shared" ref="H31" si="2">C31/F31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11">
+      <c r="B32" s="14"/>
+      <c r="C32" s="12">
         <f>SUM(C4:C31)</f>
-        <v>207964</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11">
+        <v>207956</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12">
         <f>SUM(F4:F31)</f>
         <v>358</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12">
         <f>C32/F32</f>
-        <v>580.90502793296093</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+        <v>580.88268156424579</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F4:G4"/>
@@ -1341,63 +1377,27 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2x2" sheetId="1" r:id="rId1"/>
+    <sheet name="3x3" sheetId="5" r:id="rId2"/>
+    <sheet name="4x4" sheetId="6" r:id="rId3"/>
+    <sheet name="Total" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -174,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,11 +268,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,20 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,11 +318,38 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,6 +357,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -622,10 +657,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,30 +679,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -673,24 +711,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -699,21 +737,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="14">
         <v>1648</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10">
+      <c r="G4" s="14"/>
+      <c r="H4" s="8">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -728,21 +766,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="14">
         <v>4793</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>7</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10">
+      <c r="G5" s="14"/>
+      <c r="H5" s="8">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -753,21 +791,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="14">
         <v>8191</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10">
+      <c r="G6" s="14"/>
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>682.58333333333337</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -778,21 +816,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="14">
         <v>28029</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>42</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10">
+      <c r="G7" s="14"/>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>667.35714285714289</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -803,21 +841,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="14">
         <v>28663</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
         <v>43</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10">
+      <c r="G8" s="14"/>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>666.58139534883719</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -828,21 +866,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -853,463 +891,493 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <v>0</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="17">
+      <c r="G10" s="14"/>
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="16">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5512</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>551.20000000000005</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="8" t="e">
+        <f>C11/F11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3516</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>586</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="8" t="e">
+        <f>C12/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>61058</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
-        <v>535.59649122807014</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="8" t="e">
+        <f t="shared" ref="H13:H16" si="1">C13/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>22994</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>42</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>547.47619047619048</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>42249</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>78</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10">
-        <f t="shared" si="0"/>
-        <v>541.65384615384619</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1303</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="10">
-        <f t="shared" si="0"/>
-        <v>651.5</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:H30" si="1">C28/F28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="8" t="e">
+        <f t="shared" ref="H28:H30" si="2">C28/F28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10" t="e">
-        <f t="shared" ref="H31" si="2">C31/F31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="8" t="e">
+        <f t="shared" ref="H31" si="3">C31/F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12">
+      <c r="B32" s="11"/>
+      <c r="C32" s="9">
         <f>SUM(C4:C31)</f>
-        <v>207956</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
+        <v>71324</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
         <f>SUM(F4:F31)</f>
-        <v>358</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
+        <v>106</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <f>C32/F32</f>
-        <v>580.88268156424579</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+        <v>672.86792452830184</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="H32:J33"/>
     <mergeCell ref="A32:B33"/>
     <mergeCell ref="C32:E33"/>
@@ -1326,78 +1394,12 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1406,18 +1408,1463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="3"/>
+    <col min="8" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="20.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8" t="e">
+        <f t="shared" ref="H4:H10" si="0">C4/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="6">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="16">
+        <f>SUM(L4:M9)</f>
+        <v>78</v>
+      </c>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5512</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8">
+        <f t="shared" ref="H6:H31" si="1">C11/F11</f>
+        <v>551.20000000000005</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3516</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8">
+        <f t="shared" ref="H12:H16" si="2">C12/F12</f>
+        <v>586</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14">
+        <v>61058</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>114</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>535.59649122807014</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14">
+        <v>22994</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>42</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>547.47619047619048</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="14">
+        <v>42249</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>78</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>541.65384615384619</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9">
+        <f>SUM(C4:C31)</f>
+        <v>135329</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <f>SUM(F4:F31)</f>
+        <v>250</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
+        <f>C32/F32</f>
+        <v>541.31600000000003</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="3"/>
+    <col min="8" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="20.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="20" t="e">
+        <f t="shared" ref="H4:H15" si="0">C4/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="L4" s="6">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="L10" s="16">
+        <f>SUM(L4:M9)</f>
+        <v>78</v>
+      </c>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1670</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="20">
+        <f t="shared" ref="H6:H31" si="1">C16/F16</f>
+        <v>835</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9">
+        <f>SUM(C4:C31)</f>
+        <v>1670</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <f>SUM(F4:F31)</f>
+        <v>2</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
+        <f>C32/F32</f>
+        <v>835</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,8 +300,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,24 +342,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -345,10 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,30 +682,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -711,24 +714,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -737,21 +740,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>1648</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="8">
+      <c r="G4" s="8"/>
+      <c r="H4" s="13">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -766,21 +769,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>4793</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="8">
+      <c r="G5" s="8"/>
+      <c r="H5" s="13">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -791,21 +794,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>8191</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <v>12</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8">
+      <c r="G6" s="8"/>
+      <c r="H6" s="13">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>682.58333333333337</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -816,21 +819,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>28029</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>42</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>667.35714285714289</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -841,21 +844,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>28663</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
         <v>43</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>666.58139534883719</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -866,21 +869,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8" t="e">
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -891,421 +894,499 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8" t="e">
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="16">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="L10" s="15">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="8" t="e">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="8" t="e">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="8" t="e">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="8" t="e">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="8" t="e">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="8" t="e">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="8" t="e">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="8" t="e">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="8" t="e">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="8" t="e">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="8" t="e">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="8" t="e">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="8" t="e">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="8" t="e">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="8" t="e">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="8" t="e">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="8" t="e">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="8" t="e">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="e">
         <f t="shared" ref="H28:H30" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="8" t="e">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="8" t="e">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="8" t="e">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13" t="e">
         <f t="shared" ref="H31" si="3">C31/F31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="17">
         <f>SUM(C4:C31)</f>
         <v>71324</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
         <f>SUM(F4:F31)</f>
         <v>106</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
         <f>C32/F32</f>
         <v>672.86792452830184</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -1322,84 +1403,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1413,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,30 +1433,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1462,41 +1465,47 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="8" t="e">
-        <f t="shared" ref="H4:H10" si="0">C4/F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5512</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H8" si="0">C4/F4</f>
+        <v>551.20000000000005</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1508,18 +1517,24 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="8" t="e">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3516</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>586</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1527,18 +1542,24 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8" t="e">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>61058</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>114</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>535.59649122807014</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1546,18 +1567,24 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8" t="e">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>22994</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>547.47619047619048</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1565,18 +1592,24 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8" t="e">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11">
+        <v>42249</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8">
+        <v>78</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>541.65384615384619</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1585,17 +1618,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="e">
+        <f t="shared" ref="H4:H10" si="1">C9/F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1604,447 +1637,499 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="16">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="L10" s="15">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14">
-        <v>5512</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="8">
-        <f t="shared" ref="H6:H31" si="1">C11/F11</f>
-        <v>551.20000000000005</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13" t="e">
+        <f t="shared" ref="H11:H15" si="2">C11/F11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14">
-        <v>3516</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8">
-        <f t="shared" ref="H12:H16" si="2">C12/F12</f>
-        <v>586</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14">
-        <v>61058</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>114</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>535.59649122807014</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14">
-        <v>22994</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
-        <v>42</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>547.47619047619048</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14">
-        <v>42249</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14">
-        <v>78</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13" t="e">
         <f t="shared" si="2"/>
-        <v>541.65384615384619</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="13" t="e">
+        <f t="shared" ref="H12:H16" si="3">C16/F16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="13" t="e">
+        <f t="shared" ref="H11:H31" si="4">C17/F17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="17">
         <f>SUM(C4:C31)</f>
         <v>135329</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
         <f>SUM(F4:F31)</f>
         <v>250</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
         <f>C32/F32</f>
         <v>541.31600000000003</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:J31"/>
@@ -2052,93 +2137,6 @@
     <mergeCell ref="C32:E33"/>
     <mergeCell ref="F32:G33"/>
     <mergeCell ref="H32:J33"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2152,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H4:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,30 +2167,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2201,41 +2199,47 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="20" t="e">
-        <f t="shared" ref="H4:H15" si="0">C4/F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4" si="0">C4/F4</f>
+        <v>835</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -2248,17 +2252,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="22" t="e">
+        <f t="shared" ref="H4:H15" si="1">C5/F5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2267,17 +2271,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2286,17 +2290,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2305,17 +2309,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="22" t="e">
+        <f t="shared" ref="H8:H17" si="2">C8/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2324,17 +2328,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2343,423 +2347,504 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="L10" s="16">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="L10" s="15">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1670</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
-        <v>2</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="20">
-        <f t="shared" ref="H6:H31" si="1">C16/F16</f>
-        <v>835</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="13" t="e">
+        <f t="shared" ref="H16:H31" si="3">C18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="17">
         <f>SUM(C4:C31)</f>
         <v>1670</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
         <f>SUM(F4:F31)</f>
         <v>2</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
         <f>C32/F32</f>
         <v>835</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:J31"/>
@@ -2767,93 +2852,6 @@
     <mergeCell ref="C32:E33"/>
     <mergeCell ref="F32:G33"/>
     <mergeCell ref="H32:J33"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
     <sheet name="3x3" sheetId="5" r:id="rId2"/>
     <sheet name="4x4" sheetId="6" r:id="rId3"/>
-    <sheet name="Total" sheetId="4" r:id="rId4"/>
+    <sheet name="Others" sheetId="8" r:id="rId4"/>
+    <sheet name="Overall Total" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -73,20 +74,50 @@
     <t>Calculator(Addition)</t>
   </si>
   <si>
-    <t>3x3 Mas LL</t>
-  </si>
-  <si>
     <t>4-7 Beg Par</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>Overall Total</t>
+  </si>
+  <si>
+    <t>Algorithm Page</t>
+  </si>
+  <si>
+    <t>Algorithm Page CSS</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Index CSS</t>
+  </si>
+  <si>
+    <t>3x3 Adv Full LL</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Others Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +167,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +259,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -279,11 +382,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +528,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -353,6 +584,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,30 +1021,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -714,24 +1053,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="L3" s="14" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -740,21 +1079,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>1648</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="13">
+      <c r="G4" s="9"/>
+      <c r="H4" s="14">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -769,21 +1108,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>4793</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>7</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="13">
+      <c r="G5" s="9"/>
+      <c r="H5" s="14">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -794,21 +1133,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
-        <v>8191</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="C6" s="9">
+        <v>8207</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>12</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13">
+      <c r="G6" s="9"/>
+      <c r="H6" s="14">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
-        <v>682.58333333333337</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+        <v>683.91666666666663</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -819,21 +1158,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>28029</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>42</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13">
+      <c r="G7" s="9"/>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>667.35714285714289</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -844,21 +1183,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>28663</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <v>43</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13">
+      <c r="G8" s="9"/>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>666.58139534883719</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -869,21 +1208,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13" t="e">
+      <c r="G9" s="9"/>
+      <c r="H9" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -894,418 +1233,418 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="13" t="e">
+      <c r="G10" s="9"/>
+      <c r="H10" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="15">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="L10" s="16">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="e">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="e">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="e">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="e">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="e">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="e">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13" t="e">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="e">
         <f t="shared" ref="H28:H30" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13" t="e">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13" t="e">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13" t="e">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14" t="e">
         <f t="shared" ref="H31" si="3">C31/F31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="17">
+      <c r="A32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18">
         <f>SUM(C4:C31)</f>
-        <v>71324</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+        <v>71340</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <f>SUM(F4:F31)</f>
         <v>106</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18">
         <f>C32/F32</f>
-        <v>672.86792452830184</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+        <v>673.01886792452831</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -1416,8 +1755,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,30 +1772,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1465,24 +1804,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="L3" s="14" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1491,26 +1830,26 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
-        <v>5512</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="C4" s="9">
+        <v>5552</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>10</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="13">
+      <c r="G4" s="9"/>
+      <c r="H4" s="14">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
-        <v>551.20000000000005</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+        <v>555.20000000000005</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="L4" s="6">
-        <v>21</v>
+        <v>11599</v>
       </c>
       <c r="M4" s="6">
-        <v>57</v>
+        <v>11395</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1520,21 +1859,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>3516</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="13">
+      <c r="G5" s="9"/>
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1545,21 +1884,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>61058</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>114</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13">
+      <c r="G6" s="9"/>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1570,21 +1909,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>22994</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>42</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13">
+      <c r="G7" s="9"/>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1593,23 +1932,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12">
         <v>42249</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8">
+      <c r="D8" s="26"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9">
         <v>78</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13">
+      <c r="G8" s="9"/>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1618,17 +1957,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13" t="e">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14" t="e">
         <f t="shared" ref="H4:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1637,409 +1976,409 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="13" t="e">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="15">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="L10" s="16">
         <f>SUM(L4:M9)</f>
-        <v>78</v>
-      </c>
-      <c r="M10" s="16"/>
+        <v>22994</v>
+      </c>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="13" t="e">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="13" t="e">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="13" t="e">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13" t="e">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="13" t="e">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="13" t="e">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14" t="e">
         <f t="shared" ref="H12:H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="13" t="e">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="14" t="e">
         <f t="shared" ref="H11:H31" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="13" t="e">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="13" t="e">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="13" t="e">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="17">
+      <c r="A32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18">
         <f>SUM(C4:C31)</f>
-        <v>135329</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+        <v>135369</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <f>SUM(F4:F31)</f>
         <v>250</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18">
         <f>C32/F32</f>
-        <v>541.31600000000003</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+        <v>541.476</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2150,8 +2489,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H4:J17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,30 +2506,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2199,47 +2538,47 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="L3" s="14" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
         <v>1670</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="22">
+      <c r="G4" s="9"/>
+      <c r="H4" s="23">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -2252,17 +2591,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="22" t="e">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="23" t="e">
         <f t="shared" ref="H4:H15" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2271,17 +2610,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="22" t="e">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2290,17 +2629,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="22" t="e">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2309,17 +2648,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="22" t="e">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="23" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2328,17 +2667,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="22" t="e">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2347,414 +2686,414 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="22" t="e">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="L10" s="15">
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="L10" s="16">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="22" t="e">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="22" t="e">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="22" t="e">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="22" t="e">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="22" t="e">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="22" t="e">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="22" t="e">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14" t="e">
         <f t="shared" ref="H16:H31" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="13" t="e">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="13" t="e">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="13" t="e">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="17">
+      <c r="A32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18">
         <f>SUM(C4:C31)</f>
         <v>1670</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <f>SUM(F4:F31)</f>
         <v>2</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18">
         <f>C32/F32</f>
         <v>835</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2861,14 +3200,674 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9">
+        <v>191</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="6">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>223</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9">
+        <v>288</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="16">
+        <f>SUM(G4:H9)</f>
+        <v>78</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18">
+        <f>SUM(C4:C18)</f>
+        <v>712</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="3"/>
+    <col min="8" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="20.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <f>'2x2'!C32</f>
+        <v>71340</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <f>'2x2'!F32</f>
+        <v>106</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:H5" si="0">C4/F4</f>
+        <v>673.01886792452831</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="L4" s="6">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <f>'3x3'!C32</f>
+        <v>135369</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <f>'3x3'!F32</f>
+        <v>250</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
+        <v>541.476</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <f>'4x4'!C32</f>
+        <v>1670</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <f>'4x4'!F32</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="23">
+        <f t="shared" ref="H6:H12" si="1">C6/F6</f>
+        <v>835</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="L10" s="16">
+        <f>SUM(L4:M9)</f>
+        <v>78</v>
+      </c>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>9</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43">
+        <f>SUM(C4:C12)</f>
+        <v>208379</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="43">
+        <f>SUM(F4:F12)</f>
+        <v>358</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="43">
+        <f>C13/F13</f>
+        <v>582.06424581005592</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45">
+        <f>Others!C19</f>
+        <v>712</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57">
+        <f>C13+C15</f>
+        <v>209091</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="4x4" sheetId="6" r:id="rId3"/>
     <sheet name="Others" sheetId="8" r:id="rId4"/>
     <sheet name="Overall Total" sheetId="7" r:id="rId5"/>
+    <sheet name="03-2023" sheetId="9" r:id="rId6"/>
+    <sheet name="04-2023" sheetId="12" r:id="rId7"/>
+    <sheet name="05-2023" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -121,12 +124,69 @@
   <si>
     <t>4,6 Adv Parity PLL</t>
   </si>
+  <si>
+    <t>Month:</t>
+  </si>
+  <si>
+    <t>Commits</t>
+  </si>
+  <si>
+    <t>Total Commits</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Week - 1 Date</t>
+  </si>
+  <si>
+    <t>Week - 2 Date</t>
+  </si>
+  <si>
+    <t>Week - 3 Date</t>
+  </si>
+  <si>
+    <t>Week - 4 Date</t>
+  </si>
+  <si>
+    <t>Week - 5 Date</t>
+  </si>
+  <si>
+    <t>Total Dates</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Month Count:</t>
+  </si>
+  <si>
+    <t>Week - 6 Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +290,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +428,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -516,11 +694,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,33 +733,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,10 +760,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,66 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +829,143 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,6 +974,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000066"/>
+      <color rgb="FF660033"/>
+      <color rgb="FFFFFF66"/>
       <color rgb="FF800000"/>
     </mruColors>
   </colors>
@@ -1013,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,30 +1297,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1062,24 +1329,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1088,21 +1355,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>1648</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="13">
+      <c r="G4" s="13"/>
+      <c r="H4" s="18">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1117,21 +1384,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>4793</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>7</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="13">
+      <c r="G5" s="13"/>
+      <c r="H5" s="18">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1142,21 +1409,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>8207</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="13">
+      <c r="G6" s="13"/>
+      <c r="H6" s="18">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1167,21 +1434,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>27814</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
         <v>42</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="13">
+      <c r="G7" s="13"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1192,21 +1459,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>28448</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
         <v>43</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="13">
+      <c r="G8" s="13"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1217,21 +1484,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="13" t="e">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1242,370 +1509,439 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="13" t="e">
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="23">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="L10" s="20">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="13" t="e">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="13" t="e">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="13" t="e">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="13" t="e">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="13" t="e">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="13" t="e">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="13" t="e">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14">
+      <c r="B29" s="24"/>
+      <c r="C29" s="22">
         <f>SUM(C4:C28)</f>
         <v>70910</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22">
         <f>SUM(F4:F28)</f>
         <v>106</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22">
         <f>C29/F29</f>
         <v>668.96226415094338</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -1622,75 +1958,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1700,7 +1967,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF002060"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -1721,30 +1988,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1753,24 +2020,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1779,21 +2046,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>5552</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>10</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="13">
+      <c r="G4" s="13"/>
+      <c r="H4" s="18">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -1808,21 +2075,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>3516</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="13">
+      <c r="G5" s="13"/>
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1833,21 +2100,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>61058</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
         <v>114</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="13">
+      <c r="G6" s="13"/>
+      <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1858,21 +2125,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>22994</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
         <v>42</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="13">
+      <c r="G7" s="13"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1883,21 +2150,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>42249</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19">
+      <c r="E8" s="17"/>
+      <c r="F8" s="13">
         <v>78</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="13">
+      <c r="G8" s="13"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1908,21 +2175,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="13" t="e">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1931,361 +2198,436 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="13" t="e">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="23">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="L10" s="20">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="13" t="e">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="18" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="13" t="e">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="13" t="e">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="13" t="e">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="13" t="e">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13" t="e">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="18" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="13" t="e">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="18" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14">
+      <c r="B29" s="24"/>
+      <c r="C29" s="22">
         <f>SUM(C4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22">
         <f>SUM(F4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -2296,81 +2638,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2380,7 +2647,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -2401,30 +2668,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2433,24 +2700,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2459,15 +2726,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>1670</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="28">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
@@ -2486,15 +2753,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="28" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
@@ -2511,11 +2778,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2532,11 +2799,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2551,11 +2818,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="28" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
@@ -2570,11 +2837,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2589,33 +2856,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2628,11 +2895,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2645,11 +2912,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2662,11 +2929,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2679,11 +2946,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2696,11 +2963,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2713,11 +2980,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2730,225 +2997,300 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="13" t="e">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="18" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="13" t="e">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="13" t="e">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13" t="e">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="13" t="e">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="13" t="e">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="13" t="e">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="13" t="e">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13" t="e">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="13" t="e">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="13" t="e">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14">
+      <c r="B29" s="24"/>
+      <c r="C29" s="22">
         <f>SUM(C4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22">
         <f>SUM(F4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -2959,81 +3301,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3063,20 +3330,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3085,15 +3352,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="G3" s="22" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3102,11 +3369,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>191</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3121,11 +3388,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>223</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3136,11 +3403,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>288</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3151,11 +3418,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3164,9 +3431,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3175,9 +3442,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3186,129 +3453,129 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="G10" s="23">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="20">
         <f>SUM(G4:H9)</f>
         <v>78</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14">
+      <c r="B19" s="24"/>
+      <c r="C19" s="22">
         <f>SUM(C4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:E20"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3318,7 +3585,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="1"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -3339,30 +3606,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3371,24 +3638,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3397,17 +3664,17 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <f>'2x2'!C29</f>
         <v>70910</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <f>'2x2'!F29</f>
         <v>106</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="28">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>668.96226415094338</v>
@@ -3428,17 +3695,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>541.476</v>
@@ -3455,17 +3722,17 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="28">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
@@ -3480,11 +3747,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3499,11 +3766,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3518,11 +3785,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3537,33 +3804,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3576,64 +3843,64 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62" t="e">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35">
+      <c r="B13" s="46"/>
+      <c r="C13" s="49">
         <f>SUM(C4:C12)</f>
         <v>207949</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35">
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="49">
         <f>SUM(F4:F12)</f>
         <v>358</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="35">
+      <c r="G13" s="51"/>
+      <c r="H13" s="49">
         <f>C13/F13</f>
         <v>580.86312849162016</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="45">
+      <c r="B15" s="56"/>
+      <c r="C15" s="59">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3641,59 +3908,33 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="55">
+      <c r="B17" s="32"/>
+      <c r="C17" s="35">
         <f>C13+C15</f>
         <v>208661</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="L10:M10"/>
@@ -3709,6 +3950,1619 @@
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF000066"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="65"/>
+    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="65"/>
+    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="65"/>
+    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="65"/>
+    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68">
+        <v>44986</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="81">
+        <v>1</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="77">
+        <v>5</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>12</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <v>19</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="77">
+        <v>26</v>
+      </c>
+      <c r="K6" s="78">
+        <v>24</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="77">
+        <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="78">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="77">
+        <v>6</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77">
+        <v>13</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <v>20</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="77">
+        <v>27</v>
+      </c>
+      <c r="K7" s="78">
+        <v>11</v>
+      </c>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="77">
+        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="78">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="77">
+        <v>7</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77">
+        <v>14</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77">
+        <v>21</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77">
+        <v>28</v>
+      </c>
+      <c r="K8" s="78">
+        <v>3</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="77">
+        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="78">
+        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="77">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0</v>
+      </c>
+      <c r="D9" s="77">
+        <v>8</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>15</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77">
+        <v>22</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77">
+        <v>29</v>
+      </c>
+      <c r="K9" s="78">
+        <v>10</v>
+      </c>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="78">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="77">
+        <v>2</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="D10" s="77">
+        <v>9</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="77">
+        <v>16</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0</v>
+      </c>
+      <c r="H10" s="77">
+        <v>23</v>
+      </c>
+      <c r="I10" s="78">
+        <v>0</v>
+      </c>
+      <c r="J10" s="77">
+        <v>30</v>
+      </c>
+      <c r="K10" s="78">
+        <v>0</v>
+      </c>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="77">
+        <v>3</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77">
+        <v>10</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="77">
+        <v>17</v>
+      </c>
+      <c r="G11" s="78">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77">
+        <v>24</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77">
+        <v>31</v>
+      </c>
+      <c r="K11" s="78">
+        <v>0</v>
+      </c>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="77">
+        <v>4</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="77">
+        <v>11</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0</v>
+      </c>
+      <c r="F12" s="77">
+        <v>18</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <v>25</v>
+      </c>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="80">
+        <f>COUNT(B6:B12)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="89">
+        <f>SUM(C6:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <f>COUNT(D6:D12)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="89">
+        <f>SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" ref="F13" si="2">COUNT(F6:F12)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="89">
+        <f t="shared" ref="G13" si="3">SUM(G6:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="80">
+        <f t="shared" ref="H13" si="4">COUNT(H6:H12)</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="89">
+        <f t="shared" ref="I13" si="5">SUM(I6:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" ref="J13" si="6">COUNT(J6:J12)</f>
+        <v>6</v>
+      </c>
+      <c r="K13" s="80">
+        <f>SUM(K6:K12)</f>
+        <v>48</v>
+      </c>
+      <c r="L13" s="80">
+        <f>COUNT(L6:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="89">
+        <f t="shared" ref="M13" si="7">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="79">
+        <f>SUM(N6:N12)</f>
+        <v>31</v>
+      </c>
+      <c r="O13" s="90">
+        <f>SUM(O6:O12)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF000066"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="65"/>
+    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="65"/>
+    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="65"/>
+    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="65"/>
+    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68">
+        <v>45017</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="81">
+        <v>2</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="77">
+        <v>2</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>9</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <v>16</v>
+      </c>
+      <c r="I6" s="78">
+        <v>3</v>
+      </c>
+      <c r="J6" s="77">
+        <v>23</v>
+      </c>
+      <c r="K6" s="78">
+        <v>3</v>
+      </c>
+      <c r="L6" s="77">
+        <v>30</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="77">
+        <f>COUNT(B6,D9,F9,H9,J9,#REF!)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="78">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="77">
+        <v>3</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77">
+        <v>10</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <v>17</v>
+      </c>
+      <c r="I7" s="78">
+        <v>5</v>
+      </c>
+      <c r="J7" s="77">
+        <v>24</v>
+      </c>
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="77">
+        <v>31</v>
+      </c>
+      <c r="M7" s="78">
+        <v>13</v>
+      </c>
+      <c r="N7" s="77">
+        <f>COUNT(B7,D10,F10,H10,J10,#REF!)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="78">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="77">
+        <v>4</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77">
+        <v>11</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77">
+        <v>18</v>
+      </c>
+      <c r="I8" s="78">
+        <v>2</v>
+      </c>
+      <c r="J8" s="77">
+        <v>25</v>
+      </c>
+      <c r="K8" s="78">
+        <v>0</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="77">
+        <f>COUNT(B8,D11,F11,H11,J11,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="78">
+        <f t="shared" ref="O8:O12" si="0">C8+E8+G8+I8+K8+M8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="77">
+        <v>5</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>12</v>
+      </c>
+      <c r="G9" s="78">
+        <v>2</v>
+      </c>
+      <c r="H9" s="77">
+        <v>19</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77">
+        <v>26</v>
+      </c>
+      <c r="K9" s="78">
+        <v>0</v>
+      </c>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="77">
+        <f>COUNT(B12,D12,F12,H12,J12,L9)</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="78">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="77">
+        <v>6</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="77">
+        <v>13</v>
+      </c>
+      <c r="G10" s="78">
+        <v>3</v>
+      </c>
+      <c r="H10" s="77">
+        <v>20</v>
+      </c>
+      <c r="I10" s="78">
+        <v>2</v>
+      </c>
+      <c r="J10" s="77">
+        <v>27</v>
+      </c>
+      <c r="K10" s="78">
+        <v>1</v>
+      </c>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="77">
+        <f>COUNT(D6,F6,H6,J6,L6,L10)</f>
+        <v>5</v>
+      </c>
+      <c r="O10" s="78">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="77">
+        <v>7</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="77">
+        <v>14</v>
+      </c>
+      <c r="G11" s="78">
+        <v>3</v>
+      </c>
+      <c r="H11" s="77">
+        <v>21</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77">
+        <v>28</v>
+      </c>
+      <c r="K11" s="78">
+        <v>2</v>
+      </c>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="77">
+        <f>COUNT(D7,F7,H7,J7,L7,L11)</f>
+        <v>5</v>
+      </c>
+      <c r="O11" s="78">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="77">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="77">
+        <v>8</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0</v>
+      </c>
+      <c r="F12" s="77">
+        <v>15</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <v>22</v>
+      </c>
+      <c r="I12" s="78">
+        <v>2</v>
+      </c>
+      <c r="J12" s="77">
+        <v>29</v>
+      </c>
+      <c r="K12" s="78">
+        <v>0</v>
+      </c>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="77">
+        <f>COUNT(D8,F8,H8,J8,#REF!,L12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="78">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="80">
+        <f>COUNT(B6:B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="89">
+        <f>SUM(C6:C12)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="80">
+        <f>COUNT(D9:D12)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="89">
+        <f>SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="80">
+        <f>COUNT(F9:F12)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="89">
+        <f t="shared" ref="G13" si="1">SUM(G6:G12)</f>
+        <v>8</v>
+      </c>
+      <c r="H13" s="80">
+        <f>COUNT(H9:H12)</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="89">
+        <f t="shared" ref="I13" si="2">SUM(I6:I12)</f>
+        <v>14</v>
+      </c>
+      <c r="J13" s="80">
+        <f>COUNT(J9:J12)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="80">
+        <f>SUM(K6:K12)</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="80">
+        <f>COUNT(L6:L12)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="89">
+        <f>SUM(M6:M12)</f>
+        <v>13</v>
+      </c>
+      <c r="N13" s="79">
+        <f>SUM(N6:N12)</f>
+        <v>31</v>
+      </c>
+      <c r="O13" s="90">
+        <f>SUM(O6:O12)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L3:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF000066"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="65"/>
+    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="65"/>
+    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="65"/>
+    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="65"/>
+    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68">
+        <v>45047</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="81">
+        <v>3</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="77">
+        <v>5</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>12</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <v>19</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="77">
+        <v>26</v>
+      </c>
+      <c r="K6" s="78">
+        <v>24</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="77">
+        <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="78">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="77">
+        <v>6</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77">
+        <v>13</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <v>20</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="77">
+        <v>27</v>
+      </c>
+      <c r="K7" s="78">
+        <v>11</v>
+      </c>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="77">
+        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="78">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="77">
+        <v>7</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77">
+        <v>14</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77">
+        <v>21</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77">
+        <v>28</v>
+      </c>
+      <c r="K8" s="78">
+        <v>3</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="77">
+        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="78">
+        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="77">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0</v>
+      </c>
+      <c r="D9" s="77">
+        <v>8</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>15</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77">
+        <v>22</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77">
+        <v>29</v>
+      </c>
+      <c r="K9" s="78">
+        <v>10</v>
+      </c>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="78">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="77">
+        <v>2</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="D10" s="77">
+        <v>9</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="77">
+        <v>16</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0</v>
+      </c>
+      <c r="H10" s="77">
+        <v>23</v>
+      </c>
+      <c r="I10" s="78">
+        <v>0</v>
+      </c>
+      <c r="J10" s="77">
+        <v>30</v>
+      </c>
+      <c r="K10" s="78">
+        <v>0</v>
+      </c>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="77">
+        <v>3</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77">
+        <v>10</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="77">
+        <v>17</v>
+      </c>
+      <c r="G11" s="78">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77">
+        <v>24</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77">
+        <v>31</v>
+      </c>
+      <c r="K11" s="78">
+        <v>0</v>
+      </c>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="77">
+        <v>4</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="77">
+        <v>11</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0</v>
+      </c>
+      <c r="F12" s="77">
+        <v>18</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <v>25</v>
+      </c>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="80">
+        <f>COUNT(B6:B12)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="89">
+        <f>SUM(C6:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <f>COUNT(D6:D12)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="89">
+        <f>SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" ref="F13" si="2">COUNT(F6:F12)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="89">
+        <f t="shared" ref="G13" si="3">SUM(G6:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="80">
+        <f t="shared" ref="H13" si="4">COUNT(H6:H12)</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="89">
+        <f t="shared" ref="I13" si="5">SUM(I6:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" ref="J13" si="6">COUNT(J6:J12)</f>
+        <v>6</v>
+      </c>
+      <c r="K13" s="80">
+        <f>SUM(K6:K12)</f>
+        <v>48</v>
+      </c>
+      <c r="L13" s="80">
+        <f>COUNT(L6:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="89">
+        <f t="shared" ref="M13" si="7">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="79">
+        <f>SUM(N6:N12)</f>
+        <v>31</v>
+      </c>
+      <c r="O13" s="90">
+        <f>SUM(O6:O12)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="G3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -181,6 +181,9 @@
   <si>
     <t>Week - 6 Date</t>
   </si>
+  <si>
+    <t>No. of Days:</t>
+  </si>
 </sst>
 </file>
 
@@ -331,14 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="9"/>
       <name val="Calibri"/>
@@ -364,16 +359,24 @@
     </font>
     <font>
       <b/>
+      <sz val="22"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="22"/>
-      <color theme="9"/>
+      <color theme="3" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +467,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -694,20 +703,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,48 +733,77 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -889,83 +918,21 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,7 +1248,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,30 +1264,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1329,24 +1296,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1355,21 +1322,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <v>1648</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="18">
+      <c r="G4" s="30"/>
+      <c r="H4" s="24">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1384,21 +1351,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30">
         <v>4793</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <v>7</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="18">
+      <c r="G5" s="30"/>
+      <c r="H5" s="24">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1409,21 +1376,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30">
         <v>8207</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
         <v>12</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18">
+      <c r="G6" s="30"/>
+      <c r="H6" s="24">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1434,21 +1401,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="30">
         <v>27814</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30">
         <v>42</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="18">
+      <c r="G7" s="30"/>
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1459,21 +1426,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="30">
         <v>28448</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30">
         <v>43</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="18">
+      <c r="G8" s="30"/>
+      <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1484,21 +1451,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="18" t="e">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1509,402 +1476,407 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18" t="e">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="20">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="L10" s="34">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18" t="e">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="24" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="e">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="24" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="e">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="24" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="e">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="e">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="e">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="e">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18" t="e">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18" t="e">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18" t="e">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18" t="e">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="e">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18" t="e">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="e">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18" t="e">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18" t="e">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18" t="e">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18" t="e">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="24" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22">
+      <c r="B29" s="27"/>
+      <c r="C29" s="25">
         <f>SUM(C4:C28)</f>
         <v>70910</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25">
         <f>SUM(F4:F28)</f>
         <v>106</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25">
         <f>C29/F29</f>
         <v>668.96226415094338</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -1921,43 +1893,38 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1988,30 +1955,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2020,24 +1987,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2046,21 +2013,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <v>5552</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>10</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="18">
+      <c r="G4" s="30"/>
+      <c r="H4" s="24">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2075,21 +2042,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30">
         <v>3516</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <v>6</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="18">
+      <c r="G5" s="30"/>
+      <c r="H5" s="24">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2100,21 +2067,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30">
         <v>61058</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
         <v>114</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18">
+      <c r="G6" s="30"/>
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2125,21 +2092,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="30">
         <v>22994</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30">
         <v>42</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="18">
+      <c r="G7" s="30"/>
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2150,21 +2117,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="31">
         <v>42249</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13">
+      <c r="D8" s="38"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30">
         <v>78</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="18">
+      <c r="G8" s="30"/>
+      <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2175,21 +2142,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="18" t="e">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="24" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2198,366 +2165,425 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18" t="e">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="20">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="L10" s="34">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="18" t="e">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="24" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="18" t="e">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="18" t="e">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="18" t="e">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="18" t="e">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="18" t="e">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="24" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="18" t="e">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="24" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="18" t="e">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18" t="e">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="18" t="e">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="18" t="e">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="18" t="e">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="18" t="e">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="18" t="e">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="18" t="e">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="18" t="e">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="18" t="e">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="18" t="e">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="24" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22">
+      <c r="B29" s="27"/>
+      <c r="C29" s="25">
         <f>SUM(C4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25">
         <f>SUM(F4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2574,70 +2600,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2668,30 +2635,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2700,24 +2667,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2726,21 +2693,21 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <v>1670</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="28">
+      <c r="G4" s="30"/>
+      <c r="H4" s="39">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>-24</v>
@@ -2753,21 +2720,21 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="28" t="e">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="39" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
         <v>71</v>
@@ -2778,17 +2745,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="28" t="e">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
         <v>-8</v>
@@ -2799,17 +2766,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="28" t="e">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2818,17 +2785,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="28" t="e">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="39" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2837,17 +2804,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="28" t="e">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2856,379 +2823,428 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="28" t="e">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="L10" s="20">
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="L10" s="34">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="28" t="e">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="28" t="e">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="28" t="e">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="28" t="e">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="28" t="e">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="28" t="e">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="28" t="e">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="18" t="e">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="24" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18" t="e">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="18" t="e">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="18" t="e">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="18" t="e">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="18" t="e">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="18" t="e">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="18" t="e">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="18" t="e">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="18" t="e">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="18" t="e">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22">
+      <c r="B29" s="27"/>
+      <c r="C29" s="25">
         <f>SUM(C4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25">
         <f>SUM(F4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -3239,68 +3255,19 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3330,20 +3297,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3352,15 +3319,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="G3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3369,11 +3336,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <v>191</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3388,11 +3355,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30">
         <v>223</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3403,11 +3370,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30">
         <v>288</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3418,11 +3385,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="30">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3431,9 +3398,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3442,9 +3409,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3453,129 +3420,129 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="20">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="34">
         <f>SUM(G4:H9)</f>
         <v>78</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22">
+      <c r="B19" s="27"/>
+      <c r="C19" s="25">
         <f>SUM(C4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:E20"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3606,30 +3573,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3638,24 +3605,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3664,23 +3631,23 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="30">
         <f>'2x2'!C29</f>
         <v>70910</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <f>'2x2'!F29</f>
         <v>106</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="28">
+      <c r="G4" s="30"/>
+      <c r="H4" s="39">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>668.96226415094338</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -3695,23 +3662,23 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="30">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="28">
+      <c r="G5" s="30"/>
+      <c r="H5" s="39">
         <f t="shared" si="0"/>
         <v>541.476</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -3722,23 +3689,23 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="30">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="28">
+      <c r="G6" s="30"/>
+      <c r="H6" s="39">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -3747,17 +3714,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="28" t="e">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -3766,17 +3733,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="28" t="e">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -3785,17 +3752,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="28" t="e">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -3804,103 +3771,103 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="28" t="e">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="L10" s="20">
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="L10" s="34">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="28" t="e">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42" t="e">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49">
+      <c r="B13" s="57"/>
+      <c r="C13" s="60">
         <f>SUM(C4:C12)</f>
         <v>207949</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49">
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="60">
         <f>SUM(F4:F12)</f>
         <v>358</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="49">
+      <c r="G13" s="62"/>
+      <c r="H13" s="60">
         <f>C13/F13</f>
         <v>580.86312849162016</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59">
+      <c r="B15" s="67"/>
+      <c r="C15" s="70">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3908,33 +3875,59 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="35">
+      <c r="B17" s="43"/>
+      <c r="C17" s="46">
         <f>C13+C15</f>
         <v>208661</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="L10:M10"/>
@@ -3950,32 +3943,6 @@
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3989,522 +3956,528 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="65"/>
-    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="65"/>
-    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="65"/>
-    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="65"/>
-    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77">
         <v>44986</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="81">
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76">
         <v>1</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="80">
+        <v>31</v>
+      </c>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="77">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="77">
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>12</v>
       </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="77">
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>19</v>
       </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
-      <c r="J6" s="77">
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
         <v>26</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="18">
         <v>24</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="77">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="17">
         <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
         <v>4</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="77">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="17">
         <v>6</v>
       </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="77">
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>13</v>
       </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
         <v>20</v>
       </c>
-      <c r="I7" s="78">
-        <v>0</v>
-      </c>
-      <c r="J7" s="77">
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>27</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="18">
         <v>11</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="77">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17">
         <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
         <v>4</v>
       </c>
-      <c r="O7" s="78">
+      <c r="O7" s="18">
         <f>C7+E7+G7+I7+K7+M7</f>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="77">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17">
         <v>7</v>
       </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="77">
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>14</v>
       </c>
-      <c r="G8" s="78">
-        <v>0</v>
-      </c>
-      <c r="H8" s="77">
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
         <v>21</v>
       </c>
-      <c r="I8" s="78">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
         <v>28</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="77">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="17">
         <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="18">
         <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="78">
-        <v>0</v>
-      </c>
-      <c r="D9" s="77">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="78">
-        <v>0</v>
-      </c>
-      <c r="F9" s="77">
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>15</v>
       </c>
-      <c r="G9" s="78">
-        <v>0</v>
-      </c>
-      <c r="H9" s="77">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
         <v>22</v>
       </c>
-      <c r="I9" s="78">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
         <v>29</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="18">
         <v>10</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="77">
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O9" s="78">
+      <c r="O9" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="77">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
         <v>9</v>
       </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="77">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>16</v>
       </c>
-      <c r="G10" s="78">
-        <v>0</v>
-      </c>
-      <c r="H10" s="77">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
         <v>23</v>
       </c>
-      <c r="I10" s="78">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
         <v>30</v>
       </c>
-      <c r="K10" s="78">
-        <v>0</v>
-      </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="77">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O10" s="78">
+      <c r="O10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="78">
-        <v>0</v>
-      </c>
-      <c r="D11" s="77">
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
         <v>10</v>
       </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="77">
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>17</v>
       </c>
-      <c r="G11" s="78">
-        <v>0</v>
-      </c>
-      <c r="H11" s="77">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
         <v>24</v>
       </c>
-      <c r="I11" s="78">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <v>31</v>
       </c>
-      <c r="K11" s="78">
-        <v>0</v>
-      </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="77">
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="78">
-        <v>0</v>
-      </c>
-      <c r="D12" s="77">
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
         <v>11</v>
       </c>
-      <c r="E12" s="78">
-        <v>0</v>
-      </c>
-      <c r="F12" s="77">
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>18</v>
       </c>
-      <c r="G12" s="78">
-        <v>0</v>
-      </c>
-      <c r="H12" s="77">
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
         <v>25</v>
       </c>
-      <c r="I12" s="78">
-        <v>0</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="77">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O12" s="78">
+      <c r="O12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="19">
         <f>COUNT(B6:B12)</f>
         <v>4</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="22">
         <f>SUM(C6:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="19">
         <f>COUNT(D6:D12)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="19">
         <f t="shared" ref="F13" si="2">COUNT(F6:F12)</f>
         <v>7</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="22">
         <f t="shared" ref="G13" si="3">SUM(G6:G12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="19">
         <f t="shared" ref="H13" si="4">COUNT(H6:H12)</f>
         <v>7</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="22">
         <f t="shared" ref="I13" si="5">SUM(I6:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="19">
         <f t="shared" ref="J13" si="6">COUNT(J6:J12)</f>
         <v>6</v>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="19">
         <f>SUM(K6:K12)</f>
         <v>48</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="19">
         <f>COUNT(L6:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="89">
+      <c r="M13" s="22">
         <f t="shared" ref="M13" si="7">SUM(M6:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="79">
+      <c r="N13" s="78">
         <f>SUM(N6:N12)</f>
         <v>31</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="79">
         <f>SUM(O6:O12)</f>
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="L3:O4"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4518,522 +4491,524 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="65"/>
-    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="65"/>
-    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="65"/>
-    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="65"/>
-    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77">
         <v>45017</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="81">
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76">
         <v>2</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="80">
+        <v>30</v>
+      </c>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="77">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="77">
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>9</v>
       </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="77">
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>16</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="17">
         <v>23</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="18">
         <v>3</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="17">
         <v>30</v>
       </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="77">
-        <f>COUNT(B6,D9,F9,H9,J9,#REF!)</f>
-        <v>4</v>
-      </c>
-      <c r="O6" s="78">
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="77">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="77">
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>10</v>
       </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
         <v>17</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="18">
         <v>5</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="17">
         <v>24</v>
       </c>
-      <c r="K7" s="78">
-        <v>0</v>
-      </c>
-      <c r="L7" s="77">
-        <v>31</v>
-      </c>
-      <c r="M7" s="78">
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17">
+        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="18">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="17">
+        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="17">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>19</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>26</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>13</v>
       </c>
-      <c r="N7" s="77">
-        <f>COUNT(B7,D10,F10,H10,J10,#REF!)</f>
+      <c r="G10" s="18">
+        <v>3</v>
+      </c>
+      <c r="H10" s="17">
+        <v>20</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>27</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="17">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O7" s="78">
-        <f>C7+E7+G7+I7+K7+M7</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="77">
+      <c r="O10" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="17">
+        <v>21</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>28</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="77">
-        <v>11</v>
-      </c>
-      <c r="G8" s="78">
-        <v>0</v>
-      </c>
-      <c r="H8" s="77">
-        <v>18</v>
-      </c>
-      <c r="I8" s="78">
+      <c r="O11" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>15</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>2</v>
       </c>
-      <c r="J8" s="77">
-        <v>25</v>
-      </c>
-      <c r="K8" s="78">
-        <v>0</v>
-      </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="77">
-        <f>COUNT(B8,D11,F11,H11,J11,L8)</f>
-        <v>4</v>
-      </c>
-      <c r="O8" s="78">
-        <f t="shared" ref="O8:O12" si="0">C8+E8+G8+I8+K8+M8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="77">
-        <v>5</v>
-      </c>
-      <c r="E9" s="78">
-        <v>0</v>
-      </c>
-      <c r="F9" s="77">
-        <v>12</v>
-      </c>
-      <c r="G9" s="78">
-        <v>2</v>
-      </c>
-      <c r="H9" s="77">
-        <v>19</v>
-      </c>
-      <c r="I9" s="78">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
-        <v>26</v>
-      </c>
-      <c r="K9" s="78">
-        <v>0</v>
-      </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="77">
-        <f>COUNT(B12,D12,F12,H12,J12,L9)</f>
-        <v>5</v>
-      </c>
-      <c r="O9" s="78">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="77">
-        <v>6</v>
-      </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="77">
-        <v>13</v>
-      </c>
-      <c r="G10" s="78">
-        <v>3</v>
-      </c>
-      <c r="H10" s="77">
-        <v>20</v>
-      </c>
-      <c r="I10" s="78">
-        <v>2</v>
-      </c>
-      <c r="J10" s="77">
-        <v>27</v>
-      </c>
-      <c r="K10" s="78">
-        <v>1</v>
-      </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="77">
-        <f>COUNT(D6,F6,H6,J6,L6,L10)</f>
-        <v>5</v>
-      </c>
-      <c r="O10" s="78">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="77">
-        <v>7</v>
-      </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="77">
-        <v>14</v>
-      </c>
-      <c r="G11" s="78">
-        <v>3</v>
-      </c>
-      <c r="H11" s="77">
-        <v>21</v>
-      </c>
-      <c r="I11" s="78">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
-        <v>28</v>
-      </c>
-      <c r="K11" s="78">
-        <v>2</v>
-      </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="77">
-        <f>COUNT(D7,F7,H7,J7,L7,L11)</f>
-        <v>5</v>
-      </c>
-      <c r="O11" s="78">
+      <c r="J12" s="17">
+        <v>29</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="77">
-        <v>1</v>
-      </c>
-      <c r="C12" s="78">
-        <v>1</v>
-      </c>
-      <c r="D12" s="77">
-        <v>8</v>
-      </c>
-      <c r="E12" s="78">
-        <v>0</v>
-      </c>
-      <c r="F12" s="77">
-        <v>15</v>
-      </c>
-      <c r="G12" s="78">
-        <v>0</v>
-      </c>
-      <c r="H12" s="77">
-        <v>22</v>
-      </c>
-      <c r="I12" s="78">
-        <v>2</v>
-      </c>
-      <c r="J12" s="77">
-        <v>29</v>
-      </c>
-      <c r="K12" s="78">
-        <v>0</v>
-      </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="77">
-        <f>COUNT(D8,F8,H8,J8,#REF!,L12)</f>
-        <v>4</v>
-      </c>
-      <c r="O12" s="78">
-        <f t="shared" si="0"/>
+      <c r="O12" s="18">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="19">
         <f>COUNT(B6:B12)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="22">
         <f>SUM(C6:C12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="80">
-        <f>COUNT(D9:D12)</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="89">
+      <c r="D13" s="19">
+        <f>COUNT(D6:D12)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="80">
-        <f>COUNT(F9:F12)</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="89">
-        <f t="shared" ref="G13" si="1">SUM(G6:G12)</f>
+      <c r="F13" s="19">
+        <f>COUNT(F6:F12)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
         <v>8</v>
       </c>
-      <c r="H13" s="80">
-        <f>COUNT(H9:H12)</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="89">
-        <f t="shared" ref="I13" si="2">SUM(I6:I12)</f>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13" si="3">COUNT(H6:H12)</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13" si="4">SUM(I6:I12)</f>
         <v>14</v>
       </c>
-      <c r="J13" s="80">
-        <f>COUNT(J9:J12)</f>
-        <v>4</v>
-      </c>
-      <c r="K13" s="80">
-        <f>SUM(K6:K12)</f>
+      <c r="J13" s="19">
+        <f t="shared" ref="J13" si="5">COUNT(J6:J12)</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" ref="K13:M13" si="6">SUM(K6:K12)</f>
         <v>6</v>
       </c>
-      <c r="L13" s="80">
-        <f>COUNT(L6:L12)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="89">
-        <f>SUM(M6:M12)</f>
-        <v>13</v>
-      </c>
-      <c r="N13" s="79">
+      <c r="L13" s="19">
+        <f t="shared" ref="L13" si="7">COUNT(L6:L12)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" ref="M13" si="8">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="78">
         <f>SUM(N6:N12)</f>
-        <v>31</v>
-      </c>
-      <c r="O13" s="90">
+        <v>30</v>
+      </c>
+      <c r="O13" s="79">
         <f>SUM(O6:O12)</f>
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5047,524 +5022,534 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="65"/>
-    <col min="6" max="6" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="65"/>
-    <col min="8" max="8" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="65"/>
-    <col min="10" max="10" width="14.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="65" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="65"/>
-    <col min="14" max="14" width="12" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77">
         <v>45047</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="81">
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76">
         <v>3</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="80">
+        <v>31</v>
+      </c>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="77">
-        <v>5</v>
-      </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="77">
-        <v>12</v>
-      </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="77">
-        <v>19</v>
-      </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
-      <c r="J6" s="77">
-        <v>26</v>
-      </c>
-      <c r="K6" s="78">
-        <v>24</v>
-      </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="77">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="17">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>14</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>21</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>28</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="17">
         <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
         <v>4</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17">
+        <v>8</v>
+      </c>
+      <c r="E7" s="18">
+        <v>6</v>
+      </c>
+      <c r="F7" s="17">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>22</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>29</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17">
+        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="18">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6</v>
+      </c>
+      <c r="F8" s="17">
+        <v>16</v>
+      </c>
+      <c r="G8" s="18">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17">
+        <v>23</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>30</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="17">
+        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>17</v>
+      </c>
+      <c r="G9" s="18">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="77">
-        <v>6</v>
-      </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="77">
-        <v>13</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
-        <v>20</v>
-      </c>
-      <c r="I7" s="78">
-        <v>0</v>
-      </c>
-      <c r="J7" s="77">
-        <v>27</v>
-      </c>
-      <c r="K7" s="78">
-        <v>11</v>
-      </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="77">
-        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
-        <v>4</v>
-      </c>
-      <c r="O7" s="78">
-        <f>C7+E7+G7+I7+K7+M7</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="77">
-        <v>7</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="77">
-        <v>14</v>
-      </c>
-      <c r="G8" s="78">
-        <v>0</v>
-      </c>
-      <c r="H8" s="77">
-        <v>21</v>
-      </c>
-      <c r="I8" s="78">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
-        <v>28</v>
-      </c>
-      <c r="K8" s="78">
-        <v>3</v>
-      </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="77">
-        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
-        <v>4</v>
-      </c>
-      <c r="O8" s="78">
-        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="77">
-        <v>1</v>
-      </c>
-      <c r="C9" s="78">
-        <v>0</v>
-      </c>
-      <c r="D9" s="77">
-        <v>8</v>
-      </c>
-      <c r="E9" s="78">
-        <v>0</v>
-      </c>
-      <c r="F9" s="77">
-        <v>15</v>
-      </c>
-      <c r="G9" s="78">
-        <v>0</v>
-      </c>
-      <c r="H9" s="77">
-        <v>22</v>
-      </c>
-      <c r="I9" s="78">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
-        <v>29</v>
-      </c>
-      <c r="K9" s="78">
-        <v>10</v>
-      </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="77">
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>31</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O9" s="78">
+      <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="77">
-        <v>2</v>
-      </c>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="77">
-        <v>9</v>
-      </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="77">
-        <v>16</v>
-      </c>
-      <c r="G10" s="78">
-        <v>0</v>
-      </c>
-      <c r="H10" s="77">
-        <v>23</v>
-      </c>
-      <c r="I10" s="78">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
-        <v>30</v>
-      </c>
-      <c r="K10" s="78">
-        <v>0</v>
-      </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="77">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="77">
-        <v>3</v>
-      </c>
-      <c r="C11" s="78">
-        <v>0</v>
-      </c>
-      <c r="D11" s="77">
-        <v>10</v>
-      </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="77">
-        <v>17</v>
-      </c>
-      <c r="G11" s="78">
-        <v>0</v>
-      </c>
-      <c r="H11" s="77">
-        <v>24</v>
-      </c>
-      <c r="I11" s="78">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
-        <v>31</v>
-      </c>
-      <c r="K11" s="78">
-        <v>0</v>
-      </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="77">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O11" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="77">
+      <c r="B10" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="78">
-        <v>0</v>
-      </c>
-      <c r="D12" s="77">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
         <v>11</v>
       </c>
-      <c r="E12" s="78">
-        <v>0</v>
-      </c>
-      <c r="F12" s="77">
+      <c r="E10" s="18">
+        <v>33</v>
+      </c>
+      <c r="F10" s="17">
         <v>18</v>
       </c>
-      <c r="G12" s="78">
-        <v>0</v>
-      </c>
-      <c r="H12" s="77">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
         <v>25</v>
       </c>
-      <c r="I12" s="78">
-        <v>0</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="77">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O12" s="78">
+      <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17">
+        <v>19</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>26</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>13</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>27</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="80">
-        <f>COUNT(B6:B12)</f>
+      <c r="B13" s="19">
+        <f>COUNT(B6:B10)</f>
         <v>4</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="22">
         <f>SUM(C6:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="80">
-        <f>COUNT(D6:D12)</f>
-        <v>7</v>
-      </c>
-      <c r="E13" s="89">
+        <v>53</v>
+      </c>
+      <c r="D13" s="19">
+        <f>COUNT(D6:D10)</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="22">
         <f>SUM(E6:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="80">
-        <f t="shared" ref="F13" si="2">COUNT(F6:F12)</f>
-        <v>7</v>
-      </c>
-      <c r="G13" s="89">
-        <f t="shared" ref="G13" si="3">SUM(G6:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="80">
-        <f t="shared" ref="H13" si="4">COUNT(H6:H12)</f>
-        <v>7</v>
-      </c>
-      <c r="I13" s="89">
-        <f t="shared" ref="I13" si="5">SUM(I6:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="80">
-        <f t="shared" ref="J13" si="6">COUNT(J6:J12)</f>
-        <v>6</v>
-      </c>
-      <c r="K13" s="80">
+        <v>53</v>
+      </c>
+      <c r="F13" s="19">
+        <f>COUNT(F6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="19">
+        <f>COUNT(H6:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13" si="3">SUM(I6:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f>COUNT(J6:J12)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="19">
         <f>SUM(K6:K12)</f>
-        <v>48</v>
-      </c>
-      <c r="L13" s="80">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
         <f>COUNT(L6:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="89">
-        <f t="shared" ref="M13" si="7">SUM(M6:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="79">
+      <c r="M13" s="22">
+        <f t="shared" ref="M13" si="4">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="78">
         <f>SUM(N6:N12)</f>
         <v>31</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="79">
         <f>SUM(O6:O12)</f>
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13" formula="1"/>
+    <ignoredError sqref="F13" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -762,9 +762,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,30 +810,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -922,12 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,30 +1264,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1296,24 +1296,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="33" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1322,21 +1322,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>1648</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="24">
+      <c r="G4" s="26"/>
+      <c r="H4" s="31">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1351,21 +1351,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <v>4793</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
         <v>7</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="24">
+      <c r="G5" s="26"/>
+      <c r="H5" s="31">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1376,21 +1376,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>8207</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
         <v>12</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="24">
+      <c r="G6" s="26"/>
+      <c r="H6" s="31">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1401,21 +1401,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="26">
         <v>27814</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
         <v>42</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="24">
+      <c r="G7" s="26"/>
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1426,21 +1426,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="26">
         <v>28448</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
         <v>43</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="24">
+      <c r="G8" s="26"/>
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1451,21 +1451,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="24" t="e">
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1476,370 +1476,439 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="24" t="e">
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="L10" s="34">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="L10" s="33">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="24" t="e">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24" t="e">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="24" t="e">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="24" t="e">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="24" t="e">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="24" t="e">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="24" t="e">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="24" t="e">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="24" t="e">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="24" t="e">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="24" t="e">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="24" t="e">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="24" t="e">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="24" t="e">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="24" t="e">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="24" t="e">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="24" t="e">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="24" t="e">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM(C4:C28)</f>
         <v>70910</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM(F4:F28)</f>
         <v>106</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>668.96226415094338</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -1856,75 +1925,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1955,30 +1955,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1987,24 +1987,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="33" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2013,21 +2013,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>5552</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>10</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="24">
+      <c r="G4" s="26"/>
+      <c r="H4" s="31">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2042,21 +2042,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <v>3516</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
         <v>6</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="24">
+      <c r="G5" s="26"/>
+      <c r="H5" s="31">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2067,21 +2067,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>61058</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
         <v>114</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="24">
+      <c r="G6" s="26"/>
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2092,21 +2092,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="26">
         <v>22994</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
         <v>42</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="24">
+      <c r="G7" s="26"/>
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2117,21 +2117,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>42249</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30">
+      <c r="D8" s="40"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26">
         <v>78</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="24">
+      <c r="G8" s="26"/>
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2142,21 +2142,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="24" t="e">
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="31" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2165,425 +2165,366 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="24" t="e">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="L10" s="34">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="L10" s="33">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="24" t="e">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="31" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="24" t="e">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="24" t="e">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="24" t="e">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="24" t="e">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="24" t="e">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="31" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="24" t="e">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="31" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="24" t="e">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24" t="e">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="24" t="e">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="24" t="e">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="24" t="e">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="24" t="e">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="24" t="e">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="24" t="e">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="24" t="e">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="24" t="e">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="24" t="e">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM(C4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM(F4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2600,11 +2541,70 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2635,30 +2635,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2667,24 +2667,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="33" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2693,21 +2693,21 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>1670</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="39">
+      <c r="G4" s="26"/>
+      <c r="H4" s="41">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>-24</v>
@@ -2720,21 +2720,21 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="39" t="e">
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="41" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
         <v>71</v>
@@ -2745,17 +2745,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="39" t="e">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
         <v>-8</v>
@@ -2766,17 +2766,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="39" t="e">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2785,17 +2785,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="39" t="e">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="41" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2804,17 +2804,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="39" t="e">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2823,366 +2823,441 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="L10" s="34">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="L10" s="33">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="39" t="e">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="39" t="e">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="39" t="e">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="39" t="e">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="39" t="e">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="39" t="e">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="24" t="e">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="31" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24" t="e">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="24" t="e">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="24" t="e">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="24" t="e">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="24" t="e">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="24" t="e">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="24" t="e">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="24" t="e">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="24" t="e">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="24" t="e">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM(C4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM(F4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -3193,81 +3268,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3297,20 +3297,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3319,15 +3319,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="G3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3336,11 +3336,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>191</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3355,11 +3355,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <v>223</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3370,11 +3370,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>288</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3385,11 +3385,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="26">
         <v>10</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3398,9 +3398,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3409,9 +3409,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3420,115 +3420,114 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="G10" s="34">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="33">
         <f>SUM(G4:H9)</f>
         <v>78</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="35">
         <f>SUM(C4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -3537,12 +3536,13 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3573,30 +3573,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3605,24 +3605,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="33" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3631,23 +3631,23 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <f>'2x2'!C29</f>
         <v>70910</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <f>'2x2'!F29</f>
         <v>106</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="39">
+      <c r="G4" s="26"/>
+      <c r="H4" s="41">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>668.96226415094338</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -3662,23 +3662,23 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="39">
+      <c r="G5" s="26"/>
+      <c r="H5" s="41">
         <f t="shared" si="0"/>
         <v>541.476</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -3689,23 +3689,23 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="39">
+      <c r="G6" s="26"/>
+      <c r="H6" s="41">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -3714,17 +3714,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="39" t="e">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -3733,17 +3733,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="39" t="e">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -3752,17 +3752,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="39" t="e">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -3771,103 +3771,103 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="L10" s="34">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="L10" s="33">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53" t="e">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60">
+      <c r="B13" s="59"/>
+      <c r="C13" s="62">
         <f>SUM(C4:C12)</f>
         <v>207949</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="62">
         <f>SUM(F4:F12)</f>
         <v>358</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="60">
+      <c r="G13" s="64"/>
+      <c r="H13" s="62">
         <f>C13/F13</f>
         <v>580.86312849162016</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="70">
+      <c r="B15" s="69"/>
+      <c r="C15" s="72">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3875,61 +3875,33 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="46">
+      <c r="B17" s="45"/>
+      <c r="C17" s="48">
         <f>C13+C15</f>
         <v>208661</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -3937,12 +3909,40 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="C13:E14"/>
     <mergeCell ref="F13:G14"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3981,84 +3981,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79">
         <v>44986</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76">
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78">
         <v>1</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="80">
         <v>31</v>
       </c>
       <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
     </row>
@@ -4460,11 +4460,11 @@
         <f t="shared" ref="M13" si="7">SUM(M6:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="24">
         <f>SUM(N6:N12)</f>
         <v>31</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
         <v>48</v>
       </c>
@@ -4491,8 +4491,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,84 +4516,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79">
         <v>45017</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76">
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78">
         <v>2</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="80">
         <v>30</v>
       </c>
       <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
     </row>
@@ -4980,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" ref="K13:M13" si="6">SUM(K6:K12)</f>
+        <f t="shared" ref="K13" si="6">SUM(K6:K12)</f>
         <v>6</v>
       </c>
       <c r="L13" s="19">
@@ -4991,11 +4991,11 @@
         <f t="shared" ref="M13" si="8">SUM(M6:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="24">
         <f>SUM(N6:N12)</f>
         <v>30</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
         <v>29</v>
       </c>
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,84 +5047,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79">
         <v>45047</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76">
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78">
         <v>3</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="80">
         <v>31</v>
       </c>
       <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
     </row>
@@ -5371,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="17">
         <v>25</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H13" s="19">
         <f>COUNT(H6:H10)</f>
@@ -5514,7 +5514,7 @@
         <f>COUNT(J6:J12)</f>
         <v>4</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="22">
         <f>SUM(K6:K12)</f>
         <v>0</v>
       </c>
@@ -5526,13 +5526,13 @@
         <f t="shared" ref="M13" si="4">SUM(M6:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="24">
         <f>SUM(N6:N12)</f>
         <v>31</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H10" s="17">
         <v>25</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H13" s="19">
         <f>COUNT(H6:H10)</f>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="55">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>No. of Days:</t>
+  </si>
+  <si>
+    <t>Calculator(Multiplication)</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +473,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,24 +789,39 @@
     <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,19 +831,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,34 +849,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,6 +867,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,6 +964,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,6 +992,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF99FF66"/>
       <color rgb="FF000066"/>
       <color rgb="FF660033"/>
       <color rgb="FFFFFF66"/>
@@ -1247,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,30 +1319,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1296,24 +1351,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="L3" s="32" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1322,21 +1377,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="34">
         <v>1648</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="31">
+      <c r="G4" s="34"/>
+      <c r="H4" s="28">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1351,21 +1406,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <v>4793</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>7</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="31">
+      <c r="G5" s="34"/>
+      <c r="H5" s="28">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1376,21 +1431,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <v>8207</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>12</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="31">
+      <c r="G6" s="34"/>
+      <c r="H6" s="28">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1401,21 +1456,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="34">
         <v>27814</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="31">
+      <c r="G7" s="34"/>
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1426,21 +1481,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="34">
         <v>28448</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <v>43</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="31">
+      <c r="G8" s="34"/>
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1451,21 +1506,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="31" t="e">
+      <c r="C9" s="34">
+        <v>28448</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
+        <v>43</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+        <v>661.58139534883719</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1476,402 +1531,407 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="31" t="e">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="L10" s="33">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="38">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="28" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="28" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="28" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="28" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
-        <f>SUM(C4:C28)</f>
-        <v>70910</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <f>SUM(F4:F28)</f>
-        <v>106</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="B29" s="31"/>
+      <c r="C29" s="29">
+        <f>SUM($C$4:C28)</f>
+        <v>99358</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29">
+        <f>SUM($F$4:F28)</f>
+        <v>149</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29">
         <f>C29/F29</f>
-        <v>668.96226415094338</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+        <v>666.83221476510062</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -1888,43 +1948,38 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1938,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,30 +2010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1987,24 +2042,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="L3" s="32" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2013,21 +2068,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="34">
         <v>5552</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>10</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="31">
+      <c r="G4" s="34"/>
+      <c r="H4" s="28">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2042,21 +2097,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <v>3516</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>6</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="31">
+      <c r="G5" s="34"/>
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2067,21 +2122,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <v>61058</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>114</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="31">
+      <c r="G6" s="34"/>
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2092,21 +2147,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="34">
         <v>22994</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="31">
+      <c r="G7" s="34"/>
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2117,21 +2172,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="35">
         <v>42249</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26">
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34">
         <v>78</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="31">
+      <c r="G8" s="34"/>
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2142,21 +2197,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="31" t="e">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="28" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2165,366 +2220,425 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="31" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="L10" s="33">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="38">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="31" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="28" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="31" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="31" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="31" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="31" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="31" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="28" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="31" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="28" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="31" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="31" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="31" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="31" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="31" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="31" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="31" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="31" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="31" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="31" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="31" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
-        <f>SUM(C4:C28)</f>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29">
+        <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <f>SUM(F4:F28)</f>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29">
+        <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2541,70 +2655,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2618,8 +2673,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,30 +2690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2667,24 +2722,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="L3" s="32" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2693,21 +2748,21 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="34">
         <v>1670</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="41">
+      <c r="G4" s="34"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>-24</v>
@@ -2720,21 +2775,21 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="41" t="e">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="43" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
         <v>71</v>
@@ -2745,17 +2800,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="41" t="e">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
         <v>-8</v>
@@ -2766,17 +2821,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="41" t="e">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2785,17 +2840,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="41" t="e">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="43" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2804,17 +2859,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="41" t="e">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2823,379 +2878,428 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="41" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="L10" s="33">
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="L10" s="38">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="41" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="41" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="41" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="41" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="41" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="41" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="41" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="31" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="28" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="31" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="31" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="31" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="31" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="31" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="31" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="31" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="31" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="31" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="31" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
-        <f>SUM(C4:C28)</f>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29">
+        <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <f>SUM(F4:F28)</f>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29">
+        <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -3206,68 +3310,19 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3282,7 +3337,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,20 +3352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3319,15 +3374,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="G3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="32"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3336,11 +3391,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="34">
         <v>191</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3355,11 +3410,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <v>223</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3370,11 +3425,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <v>288</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3385,11 +3440,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3398,9 +3453,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3409,9 +3464,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3420,114 +3475,108 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="G10" s="33">
-        <f>SUM(G4:H9)</f>
-        <v>78</v>
-      </c>
-      <c r="H10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="G10" s="38">
+        <f>PRODUCT(G4:H9)</f>
+        <v>1197</v>
+      </c>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35">
-        <f>SUM(C4:C18)</f>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29">
+        <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -3543,6 +3592,12 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3557,7 +3612,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,30 +3628,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3605,24 +3660,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="L3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="32"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3631,28 +3686,28 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="34">
         <f>'2x2'!C29</f>
-        <v>70910</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+        <v>99358</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <f>'2x2'!F29</f>
-        <v>106</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="41">
+        <v>149</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
-        <v>668.96226415094338</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="6">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6">
-        <v>57</v>
+        <v>666.83221476510062</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="L4" s="26">
+        <v>1456</v>
+      </c>
+      <c r="M4" s="27">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3662,25 +3717,25 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="41">
+      <c r="G5" s="34"/>
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>541.476</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3689,185 +3744,185 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="41">
+      <c r="G6" s="34"/>
+      <c r="H6" s="43">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="41" t="e">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="41" t="e">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="41" t="e">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="41" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="L10" s="33">
-        <f>SUM(L4:M9)</f>
-        <v>78</v>
-      </c>
-      <c r="M10" s="34"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="L10" s="46">
+        <f>PRODUCT(L4:M9)</f>
+        <v>33488</v>
+      </c>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="41" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55" t="e">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="62">
+      <c r="B13" s="63"/>
+      <c r="C13" s="66">
         <f>SUM(C4:C12)</f>
-        <v>207949</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="62">
+        <v>236397</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66">
         <f>SUM(F4:F12)</f>
-        <v>358</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="62">
+        <v>401</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66">
         <f>C13/F13</f>
-        <v>580.86312849162016</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+        <v>589.51870324189531</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="72">
+      <c r="B15" s="73"/>
+      <c r="C15" s="76">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3875,57 +3930,38 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="48">
+      <c r="B17" s="53"/>
+      <c r="C17" s="56">
         <f>C13+C15</f>
-        <v>208661</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+        <v>237109</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -3938,11 +3974,30 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3956,8 +4011,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,86 +4036,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83">
         <v>44986</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78">
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82">
         <v>1</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="80">
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="84">
         <v>31</v>
       </c>
-      <c r="O3" s="80"/>
+      <c r="O3" s="84"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4115,28 +4170,28 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="17">
+      <c r="D6" s="88">
         <v>5</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="87">
+        <v>0</v>
+      </c>
+      <c r="F6" s="88">
         <v>12</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="87">
+        <v>0</v>
+      </c>
+      <c r="H6" s="88">
         <v>19</v>
       </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="I6" s="87">
+        <v>0</v>
+      </c>
+      <c r="J6" s="89">
         <v>26</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="85">
         <v>24</v>
       </c>
       <c r="L6" s="20"/>
@@ -4156,28 +4211,28 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="17">
+      <c r="D7" s="88">
         <v>6</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="87">
+        <v>0</v>
+      </c>
+      <c r="F7" s="88">
         <v>13</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="87">
+        <v>0</v>
+      </c>
+      <c r="H7" s="88">
         <v>20</v>
       </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="87">
+        <v>0</v>
+      </c>
+      <c r="J7" s="89">
         <v>27</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="85">
         <v>11</v>
       </c>
       <c r="L7" s="20"/>
@@ -4197,28 +4252,28 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="17">
+      <c r="D8" s="88">
         <v>7</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="87">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
         <v>14</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="87">
+        <v>0</v>
+      </c>
+      <c r="H8" s="88">
         <v>21</v>
       </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="87">
+        <v>0</v>
+      </c>
+      <c r="J8" s="90">
         <v>28</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="86">
         <v>3</v>
       </c>
       <c r="L8" s="20"/>
@@ -4236,34 +4291,34 @@
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="88">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="C9" s="87">
+        <v>0</v>
+      </c>
+      <c r="D9" s="88">
         <v>8</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="87">
+        <v>0</v>
+      </c>
+      <c r="F9" s="88">
         <v>15</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="87">
+        <v>0</v>
+      </c>
+      <c r="H9" s="88">
         <v>22</v>
       </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="87">
+        <v>0</v>
+      </c>
+      <c r="J9" s="89">
         <v>29</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="85">
         <v>10</v>
       </c>
       <c r="L9" s="20"/>
@@ -4281,34 +4336,34 @@
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="88">
         <v>2</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="87">
+        <v>0</v>
+      </c>
+      <c r="D10" s="88">
         <v>9</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="87">
+        <v>0</v>
+      </c>
+      <c r="F10" s="88">
         <v>16</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="87">
+        <v>0</v>
+      </c>
+      <c r="H10" s="88">
         <v>23</v>
       </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="87">
+        <v>0</v>
+      </c>
+      <c r="J10" s="88">
         <v>30</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="87">
         <v>0</v>
       </c>
       <c r="L10" s="20"/>
@@ -4326,34 +4381,34 @@
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="88">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="87">
+        <v>0</v>
+      </c>
+      <c r="D11" s="88">
         <v>10</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="87">
+        <v>0</v>
+      </c>
+      <c r="F11" s="88">
         <v>17</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="87">
+        <v>0</v>
+      </c>
+      <c r="H11" s="88">
         <v>24</v>
       </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="87">
+        <v>0</v>
+      </c>
+      <c r="J11" s="88">
         <v>31</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="87">
         <v>0</v>
       </c>
       <c r="L11" s="20"/>
@@ -4371,28 +4426,28 @@
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="88">
         <v>4</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="87">
+        <v>0</v>
+      </c>
+      <c r="D12" s="88">
         <v>11</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="87">
+        <v>0</v>
+      </c>
+      <c r="F12" s="88">
         <v>18</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="87">
+        <v>0</v>
+      </c>
+      <c r="H12" s="88">
         <v>25</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="87">
         <v>0</v>
       </c>
       <c r="J12" s="20"/>
@@ -4492,7 +4547,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,86 +4571,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83">
         <v>45017</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78">
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82">
         <v>2</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="80">
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="84">
         <v>30</v>
       </c>
-      <c r="O3" s="80"/>
+      <c r="O3" s="84"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4650,34 +4705,34 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="17">
+      <c r="D6" s="88">
         <v>2</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="87">
+        <v>0</v>
+      </c>
+      <c r="F6" s="88">
         <v>9</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="87">
+        <v>0</v>
+      </c>
+      <c r="H6" s="90">
         <v>16</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="86">
         <v>3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="90">
         <v>23</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="86">
         <v>3</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="88">
         <v>30</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="87">
         <v>0</v>
       </c>
       <c r="N6" s="17">
@@ -4695,28 +4750,28 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="17">
+      <c r="D7" s="88">
         <v>3</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="87">
+        <v>0</v>
+      </c>
+      <c r="F7" s="88">
         <v>10</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="87">
+        <v>0</v>
+      </c>
+      <c r="H7" s="90">
         <v>17</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="86">
         <v>5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="88">
         <v>24</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="87">
         <v>0</v>
       </c>
       <c r="L7" s="20"/>
@@ -4736,28 +4791,28 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="17">
+      <c r="D8" s="88">
         <v>4</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="87">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
         <v>11</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="87">
+        <v>0</v>
+      </c>
+      <c r="H8" s="90">
         <v>18</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="86">
         <v>2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="88">
         <v>25</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="87">
         <v>0</v>
       </c>
       <c r="L8" s="20"/>
@@ -4777,28 +4832,28 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="17">
+      <c r="D9" s="88">
         <v>5</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="87">
+        <v>0</v>
+      </c>
+      <c r="F9" s="90">
         <v>12</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="86">
         <v>2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="88">
         <v>19</v>
       </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="87">
+        <v>0</v>
+      </c>
+      <c r="J9" s="88">
         <v>26</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="87">
         <v>0</v>
       </c>
       <c r="L9" s="20"/>
@@ -4818,28 +4873,28 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="17">
+      <c r="D10" s="88">
         <v>6</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="87">
+        <v>0</v>
+      </c>
+      <c r="F10" s="90">
         <v>13</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="86">
         <v>3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="90">
         <v>20</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="86">
         <v>2</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="90">
         <v>27</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="86">
         <v>1</v>
       </c>
       <c r="L10" s="20"/>
@@ -4859,28 +4914,28 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="17">
+      <c r="D11" s="88">
         <v>7</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="87">
+        <v>0</v>
+      </c>
+      <c r="F11" s="90">
         <v>14</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="86">
         <v>3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="88">
         <v>21</v>
       </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="87">
+        <v>0</v>
+      </c>
+      <c r="J11" s="90">
         <v>28</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="86">
         <v>2</v>
       </c>
       <c r="L11" s="20"/>
@@ -4904,28 +4959,28 @@
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="88">
         <v>8</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="87">
+        <v>0</v>
+      </c>
+      <c r="F12" s="88">
         <v>15</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="87">
+        <v>0</v>
+      </c>
+      <c r="H12" s="90">
         <v>22</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="86">
         <v>2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="88">
         <v>29</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="87">
         <v>0</v>
       </c>
       <c r="L12" s="20"/>
@@ -5022,8 +5077,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,86 +5102,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83">
         <v>45047</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78">
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82">
         <v>3</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="80">
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="84">
         <v>31</v>
       </c>
-      <c r="O3" s="80"/>
+      <c r="O3" s="84"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5181,16 +5236,16 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="17">
+      <c r="D6" s="88">
         <v>7</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="87">
+        <v>0</v>
+      </c>
+      <c r="F6" s="88">
         <v>14</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="87">
         <v>0</v>
       </c>
       <c r="H6" s="17">
@@ -5220,22 +5275,22 @@
       <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="89">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="85">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="89">
         <v>8</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="85">
         <v>6</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="88">
         <v>15</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="87">
         <v>0</v>
       </c>
       <c r="H7" s="17">
@@ -5265,22 +5320,22 @@
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="90">
         <v>2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="86">
         <v>5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="89">
         <v>9</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="85">
         <v>6</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="89">
         <v>16</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="85">
         <v>6</v>
       </c>
       <c r="H8" s="17">
@@ -5310,22 +5365,22 @@
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="90">
         <v>3</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="86">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="88">
         <v>10</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="87">
+        <v>0</v>
+      </c>
+      <c r="F9" s="90">
         <v>17</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="86">
         <v>3</v>
       </c>
       <c r="H9" s="17">
@@ -5355,22 +5410,22 @@
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="88">
         <v>4</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="87">
+        <v>0</v>
+      </c>
+      <c r="D10" s="89">
         <v>11</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="85">
         <v>33</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="89">
         <v>18</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="85">
         <v>14</v>
       </c>
       <c r="H10" s="17">
@@ -5396,23 +5451,23 @@
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="90">
         <v>5</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="86">
         <v>5</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="89">
         <v>12</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="85">
         <v>6</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="90">
         <v>19</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
+      <c r="G11" s="86">
+        <v>5</v>
       </c>
       <c r="H11" s="17">
         <v>26</v>
@@ -5430,23 +5485,23 @@
       </c>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="89">
         <v>6</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="85">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="90">
         <v>13</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="86">
         <v>2</v>
       </c>
       <c r="F12" s="17">
@@ -5500,7 +5555,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H13" s="19">
         <f>COUNT(H6:H10)</f>
@@ -5532,7 +5587,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -795,6 +795,24 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -964,24 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,9 +992,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF9999"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFF99"/>
+      <color rgb="FFFF9999"/>
       <color rgb="FF99FF66"/>
       <color rgb="FF000066"/>
       <color rgb="FF660033"/>
@@ -1319,30 +1319,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1351,24 +1351,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="37" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="37"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1377,21 +1377,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>1648</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f>C4/F4</f>
         <v>824</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1406,21 +1406,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>4793</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>7</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="28">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1431,21 +1431,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>8207</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>12</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="28">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1456,21 +1456,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>27814</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="28">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1481,21 +1481,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="40">
         <v>28448</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40">
         <v>43</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="28">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1506,21 +1506,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="40">
         <v>28448</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <v>43</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="28">
+      <c r="G9" s="40"/>
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1531,367 +1531,367 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28" t="e">
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="38">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="28" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="34" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="28" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="34" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="28" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="28" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="28" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="28" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="28" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="28" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="28" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="28" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="28" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="28" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="29">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>99358</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>666.83221476510062</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -2010,30 +2010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2042,24 +2042,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="37" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="37"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2068,21 +2068,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>5552</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>10</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2097,21 +2097,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>3516</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>6</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="28">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2122,21 +2122,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>61058</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>114</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="28">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2147,21 +2147,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>22994</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="28">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2172,21 +2172,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="41">
         <v>42249</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34">
+      <c r="D8" s="48"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="40">
         <v>78</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="28">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2197,21 +2197,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="28" t="e">
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="34" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2220,358 +2220,358 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28" t="e">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="38">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="28" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="28" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="28" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="28" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="28" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="28" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="28" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="28" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="28" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="28" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="28" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="28" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="28" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="28" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="28" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="28" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="28" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="29">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -2690,30 +2690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2722,24 +2722,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="37" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="37"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2748,21 +2748,21 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>1670</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="43">
+      <c r="G4" s="40"/>
+      <c r="H4" s="49">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>-24</v>
@@ -2775,21 +2775,21 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="43" t="e">
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="49" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
         <v>71</v>
@@ -2800,17 +2800,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="43" t="e">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
         <v>-8</v>
@@ -2821,17 +2821,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="43" t="e">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2840,17 +2840,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="43" t="e">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="49" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2859,17 +2859,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="43" t="e">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2878,363 +2878,363 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="43" t="e">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="L10" s="38">
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="43" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="43" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="43" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="43" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="43" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="43" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="43" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="28" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="28" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="28" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="28" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="28" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="28" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="28" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="28" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="28" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="28" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="28" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="29">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -3352,20 +3352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3374,15 +3374,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="37" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3391,11 +3391,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>191</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3410,11 +3410,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>223</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3425,11 +3425,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>288</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3440,11 +3440,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>10</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3453,9 +3453,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3464,9 +3464,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3475,105 +3475,105 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="38">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="44">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29">
+      <c r="B19" s="37"/>
+      <c r="C19" s="35">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3628,30 +3628,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3660,24 +3660,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="37" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="37"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3686,23 +3686,23 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <f>'2x2'!C29</f>
         <v>99358</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="43">
+      <c r="G4" s="40"/>
+      <c r="H4" s="49">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>666.83221476510062</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
       <c r="L4" s="26">
         <v>1456</v>
       </c>
@@ -3717,23 +3717,23 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="43">
+      <c r="G5" s="40"/>
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>541.476</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
@@ -3744,23 +3744,23 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="43">
+      <c r="G6" s="40"/>
+      <c r="H6" s="49">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
@@ -3769,17 +3769,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="43" t="e">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
@@ -3788,17 +3788,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="43" t="e">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
@@ -3807,17 +3807,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="43" t="e">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
@@ -3826,103 +3826,103 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="43" t="e">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="L10" s="46">
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="L10" s="52">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="43" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="e">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="66">
+      <c r="B13" s="69"/>
+      <c r="C13" s="72">
         <f>SUM(C4:C12)</f>
         <v>236397</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="66">
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="66">
+      <c r="G13" s="74"/>
+      <c r="H13" s="72">
         <f>C13/F13</f>
         <v>589.51870324189531</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="76">
+      <c r="B15" s="79"/>
+      <c r="C15" s="82">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3930,30 +3930,30 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="56">
+      <c r="B17" s="59"/>
+      <c r="C17" s="62">
         <f>C13+C15</f>
         <v>237109</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4036,86 +4036,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89">
         <v>44986</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="82" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88">
         <v>1</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="84">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="90">
         <v>31</v>
       </c>
-      <c r="O3" s="84"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4170,28 +4170,28 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="88">
+      <c r="D6" s="31">
         <v>5</v>
       </c>
-      <c r="E6" s="87">
-        <v>0</v>
-      </c>
-      <c r="F6" s="88">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
         <v>12</v>
       </c>
-      <c r="G6" s="87">
-        <v>0</v>
-      </c>
-      <c r="H6" s="88">
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
         <v>19</v>
       </c>
-      <c r="I6" s="87">
-        <v>0</v>
-      </c>
-      <c r="J6" s="89">
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
         <v>26</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="28">
         <v>24</v>
       </c>
       <c r="L6" s="20"/>
@@ -4211,28 +4211,28 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="88">
+      <c r="D7" s="31">
         <v>6</v>
       </c>
-      <c r="E7" s="87">
-        <v>0</v>
-      </c>
-      <c r="F7" s="88">
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
         <v>13</v>
       </c>
-      <c r="G7" s="87">
-        <v>0</v>
-      </c>
-      <c r="H7" s="88">
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
         <v>20</v>
       </c>
-      <c r="I7" s="87">
-        <v>0</v>
-      </c>
-      <c r="J7" s="89">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
         <v>27</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="28">
         <v>11</v>
       </c>
       <c r="L7" s="20"/>
@@ -4252,28 +4252,28 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="88">
+      <c r="D8" s="31">
         <v>7</v>
       </c>
-      <c r="E8" s="87">
-        <v>0</v>
-      </c>
-      <c r="F8" s="88">
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
         <v>14</v>
       </c>
-      <c r="G8" s="87">
-        <v>0</v>
-      </c>
-      <c r="H8" s="88">
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
         <v>21</v>
       </c>
-      <c r="I8" s="87">
-        <v>0</v>
-      </c>
-      <c r="J8" s="90">
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
         <v>28</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="29">
         <v>3</v>
       </c>
       <c r="L8" s="20"/>
@@ -4291,34 +4291,34 @@
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
-      <c r="C9" s="87">
-        <v>0</v>
-      </c>
-      <c r="D9" s="88">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
         <v>8</v>
       </c>
-      <c r="E9" s="87">
-        <v>0</v>
-      </c>
-      <c r="F9" s="88">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
         <v>15</v>
       </c>
-      <c r="G9" s="87">
-        <v>0</v>
-      </c>
-      <c r="H9" s="88">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
         <v>22</v>
       </c>
-      <c r="I9" s="87">
-        <v>0</v>
-      </c>
-      <c r="J9" s="89">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <v>29</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="28">
         <v>10</v>
       </c>
       <c r="L9" s="20"/>
@@ -4336,34 +4336,34 @@
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="31">
         <v>2</v>
       </c>
-      <c r="C10" s="87">
-        <v>0</v>
-      </c>
-      <c r="D10" s="88">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
         <v>9</v>
       </c>
-      <c r="E10" s="87">
-        <v>0</v>
-      </c>
-      <c r="F10" s="88">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="31">
         <v>16</v>
       </c>
-      <c r="G10" s="87">
-        <v>0</v>
-      </c>
-      <c r="H10" s="88">
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
         <v>23</v>
       </c>
-      <c r="I10" s="87">
-        <v>0</v>
-      </c>
-      <c r="J10" s="88">
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
         <v>30</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="30">
         <v>0</v>
       </c>
       <c r="L10" s="20"/>
@@ -4381,34 +4381,34 @@
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="31">
         <v>3</v>
       </c>
-      <c r="C11" s="87">
-        <v>0</v>
-      </c>
-      <c r="D11" s="88">
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
         <v>10</v>
       </c>
-      <c r="E11" s="87">
-        <v>0</v>
-      </c>
-      <c r="F11" s="88">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
         <v>17</v>
       </c>
-      <c r="G11" s="87">
-        <v>0</v>
-      </c>
-      <c r="H11" s="88">
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
         <v>24</v>
       </c>
-      <c r="I11" s="87">
-        <v>0</v>
-      </c>
-      <c r="J11" s="88">
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
         <v>31</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="30">
         <v>0</v>
       </c>
       <c r="L11" s="20"/>
@@ -4426,28 +4426,28 @@
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="31">
         <v>4</v>
       </c>
-      <c r="C12" s="87">
-        <v>0</v>
-      </c>
-      <c r="D12" s="88">
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
         <v>11</v>
       </c>
-      <c r="E12" s="87">
-        <v>0</v>
-      </c>
-      <c r="F12" s="88">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
         <v>18</v>
       </c>
-      <c r="G12" s="87">
-        <v>0</v>
-      </c>
-      <c r="H12" s="88">
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
         <v>25</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="20"/>
@@ -4571,86 +4571,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89">
         <v>45017</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="82" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88">
         <v>2</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="84">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="90">
         <v>30</v>
       </c>
-      <c r="O3" s="84"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4705,34 +4705,34 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="88">
+      <c r="D6" s="31">
         <v>2</v>
       </c>
-      <c r="E6" s="87">
-        <v>0</v>
-      </c>
-      <c r="F6" s="88">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
         <v>9</v>
       </c>
-      <c r="G6" s="87">
-        <v>0</v>
-      </c>
-      <c r="H6" s="90">
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
         <v>16</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="29">
         <v>3</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="33">
         <v>23</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="29">
         <v>3</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="31">
         <v>30</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="30">
         <v>0</v>
       </c>
       <c r="N6" s="17">
@@ -4750,28 +4750,28 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="88">
+      <c r="D7" s="31">
         <v>3</v>
       </c>
-      <c r="E7" s="87">
-        <v>0</v>
-      </c>
-      <c r="F7" s="88">
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
         <v>10</v>
       </c>
-      <c r="G7" s="87">
-        <v>0</v>
-      </c>
-      <c r="H7" s="90">
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
         <v>17</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="29">
         <v>5</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="31">
         <v>24</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="30">
         <v>0</v>
       </c>
       <c r="L7" s="20"/>
@@ -4791,28 +4791,28 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="88">
+      <c r="D8" s="31">
         <v>4</v>
       </c>
-      <c r="E8" s="87">
-        <v>0</v>
-      </c>
-      <c r="F8" s="88">
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
         <v>11</v>
       </c>
-      <c r="G8" s="87">
-        <v>0</v>
-      </c>
-      <c r="H8" s="90">
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33">
         <v>18</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="29">
         <v>2</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="31">
         <v>25</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="30">
         <v>0</v>
       </c>
       <c r="L8" s="20"/>
@@ -4832,28 +4832,28 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="88">
+      <c r="D9" s="31">
         <v>5</v>
       </c>
-      <c r="E9" s="87">
-        <v>0</v>
-      </c>
-      <c r="F9" s="90">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
         <v>12</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="29">
         <v>2</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="31">
         <v>19</v>
       </c>
-      <c r="I9" s="87">
-        <v>0</v>
-      </c>
-      <c r="J9" s="88">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
         <v>26</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="30">
         <v>0</v>
       </c>
       <c r="L9" s="20"/>
@@ -4873,28 +4873,28 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="88">
+      <c r="D10" s="31">
         <v>6</v>
       </c>
-      <c r="E10" s="87">
-        <v>0</v>
-      </c>
-      <c r="F10" s="90">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
         <v>13</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="29">
         <v>3</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="33">
         <v>20</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="33">
         <v>27</v>
       </c>
-      <c r="K10" s="86">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
       <c r="L10" s="20"/>
@@ -4914,28 +4914,28 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="88">
+      <c r="D11" s="31">
         <v>7</v>
       </c>
-      <c r="E11" s="87">
-        <v>0</v>
-      </c>
-      <c r="F11" s="90">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
         <v>14</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="29">
         <v>3</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="31">
         <v>21</v>
       </c>
-      <c r="I11" s="87">
-        <v>0</v>
-      </c>
-      <c r="J11" s="90">
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
         <v>28</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="29">
         <v>2</v>
       </c>
       <c r="L11" s="20"/>
@@ -4959,28 +4959,28 @@
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="31">
         <v>8</v>
       </c>
-      <c r="E12" s="87">
-        <v>0</v>
-      </c>
-      <c r="F12" s="88">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
         <v>15</v>
       </c>
-      <c r="G12" s="87">
-        <v>0</v>
-      </c>
-      <c r="H12" s="90">
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
         <v>22</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="29">
         <v>2</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="31">
         <v>29</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="30">
         <v>0</v>
       </c>
       <c r="L12" s="20"/>
@@ -5077,8 +5077,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,86 +5102,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89">
         <v>45047</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="82" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88">
         <v>3</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="84">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="90">
         <v>31</v>
       </c>
-      <c r="O3" s="84"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5236,23 +5236,23 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="88">
+      <c r="D6" s="31">
         <v>7</v>
       </c>
-      <c r="E6" s="87">
-        <v>0</v>
-      </c>
-      <c r="F6" s="88">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
         <v>14</v>
       </c>
-      <c r="G6" s="87">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
         <v>21</v>
       </c>
-      <c r="I6" s="18">
-        <v>0</v>
+      <c r="I6" s="28">
+        <v>19</v>
       </c>
       <c r="J6" s="17">
         <v>28</v>
@@ -5268,29 +5268,29 @@
       </c>
       <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="28">
         <v>13</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="32">
         <v>8</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="28">
         <v>6</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="31">
         <v>15</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="30">
         <v>0</v>
       </c>
       <c r="H7" s="17">
@@ -5320,22 +5320,22 @@
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="33">
         <v>2</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="32">
         <v>9</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="28">
         <v>6</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="32">
         <v>16</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="28">
         <v>6</v>
       </c>
       <c r="H8" s="17">
@@ -5365,22 +5365,22 @@
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="33">
         <v>3</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="31">
         <v>10</v>
       </c>
-      <c r="E9" s="87">
-        <v>0</v>
-      </c>
-      <c r="F9" s="90">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
         <v>17</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="29">
         <v>3</v>
       </c>
       <c r="H9" s="17">
@@ -5410,22 +5410,22 @@
       <c r="A10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="31">
         <v>4</v>
       </c>
-      <c r="C10" s="87">
-        <v>0</v>
-      </c>
-      <c r="D10" s="89">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
         <v>11</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="28">
         <v>33</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="32">
         <v>18</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="28">
         <v>14</v>
       </c>
       <c r="H10" s="17">
@@ -5451,22 +5451,22 @@
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="29">
         <v>5</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="32">
         <v>12</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="28">
         <v>6</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="33">
         <v>19</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="29">
         <v>5</v>
       </c>
       <c r="H11" s="17">
@@ -5492,23 +5492,23 @@
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="32">
         <v>6</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="28">
         <v>29</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="33">
         <v>13</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="33">
         <v>20</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
+      <c r="G12" s="29">
+        <v>3</v>
       </c>
       <c r="H12" s="17">
         <v>27</v>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H13" s="19">
         <f>COUNT(H6:H10)</f>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="I13" s="22">
         <f t="shared" ref="I13" si="3">SUM(I6:I12)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J13" s="19">
         <f>COUNT(J6:J12)</f>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -813,33 +813,24 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,10 +840,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,6 +867,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,96 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,8 +992,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF99FF66"/>
       <color rgb="FF000066"/>
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:E30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,30 +1319,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1351,24 +1351,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1377,21 +1377,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40">
-        <v>1648</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="C4" s="34">
+        <v>1661</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="34"/>
+      <c r="H4" s="39">
         <f>C4/F4</f>
-        <v>824</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+        <v>830.5</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1406,21 +1406,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>4793</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="34"/>
+      <c r="H5" s="39">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1431,21 +1431,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>8207</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>12</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="34"/>
+      <c r="H6" s="39">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1456,21 +1456,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>27814</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="34"/>
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1481,21 +1481,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="34">
         <v>28448</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <v>43</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="34"/>
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1506,21 +1506,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="34">
         <v>28448</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>43</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34">
+      <c r="G9" s="34"/>
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1531,370 +1531,439 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="40">
-        <v>0</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
-        <v>99358</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+        <v>99371</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
-        <v>666.83221476510062</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+        <v>666.91946308724835</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -1911,75 +1980,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2010,30 +2010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2042,24 +2042,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2068,21 +2068,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>5552</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="34"/>
+      <c r="H4" s="39">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2097,21 +2097,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>3516</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>6</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="34"/>
+      <c r="H5" s="39">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2122,21 +2122,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>61058</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>114</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="34"/>
+      <c r="H6" s="39">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2147,21 +2147,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>22994</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="34"/>
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2172,21 +2172,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <v>42249</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40">
+      <c r="E8" s="38"/>
+      <c r="F8" s="34">
         <v>78</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="34"/>
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2197,21 +2197,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="40">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34" t="e">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="39" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2220,425 +2220,366 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="39" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="39" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="39" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2655,11 +2596,70 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2690,30 +2690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2722,24 +2722,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2748,15 +2748,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>1670</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
@@ -2775,15 +2775,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34"/>
       <c r="H5" s="49" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
@@ -2800,11 +2800,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2821,11 +2821,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2840,11 +2840,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="49" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
@@ -2859,11 +2859,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2878,33 +2878,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="44">
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2917,11 +2917,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2934,11 +2934,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2951,11 +2951,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2968,11 +2968,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2985,11 +2985,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3002,11 +3002,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3019,225 +3019,300 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -3248,81 +3323,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3352,20 +3352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3374,15 +3374,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="G3" s="43" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3391,11 +3391,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>191</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3410,11 +3410,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>223</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3425,11 +3425,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>288</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3440,11 +3440,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3453,9 +3453,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3464,9 +3464,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3475,108 +3475,114 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="G10" s="44">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="G10" s="41">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35">
+      <c r="B19" s="45"/>
+      <c r="C19" s="43">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -3592,12 +3598,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3628,30 +3628,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3660,24 +3660,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3686,20 +3686,20 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <f>'2x2'!C29</f>
-        <v>99358</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+        <v>99371</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
-        <v>666.83221476510062</v>
+        <v>666.91946308724835</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="51"/>
@@ -3717,17 +3717,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>541.476</v>
@@ -3744,17 +3744,17 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="49">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
@@ -3769,11 +3769,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3788,11 +3788,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3807,11 +3807,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3826,33 +3826,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="52">
+      <c r="L10" s="82">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3865,64 +3865,64 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55" t="e">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="72">
+      <c r="B13" s="79"/>
+      <c r="C13" s="52">
         <f>SUM(C4:C12)</f>
-        <v>236397</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="72">
+        <v>236410</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72">
+      <c r="G13" s="54"/>
+      <c r="H13" s="52">
         <f>C13/F13</f>
-        <v>589.51870324189531</v>
-      </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+        <v>589.55112219451371</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82">
+      <c r="B15" s="59"/>
+      <c r="C15" s="62">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3930,38 +3930,57 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="62">
+      <c r="B17" s="69"/>
+      <c r="C17" s="72">
         <f>C13+C15</f>
-        <v>237109</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+        <v>237122</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -3974,30 +3993,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4036,40 +4036,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -4571,40 +4571,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -5078,7 +5078,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,40 +5102,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -5293,11 +5293,11 @@
       <c r="G7" s="30">
         <v>0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="33">
         <v>22</v>
       </c>
-      <c r="I7" s="18">
-        <v>0</v>
+      <c r="I7" s="29">
+        <v>3</v>
       </c>
       <c r="J7" s="17">
         <v>29</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="O7" s="18">
         <f>C7+E7+G7+I7+K7+M7</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="I13" s="22">
         <f t="shared" ref="I13" si="3">SUM(I6:I12)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J13" s="19">
         <f>COUNT(J6:J12)</f>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -813,24 +813,33 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,19 +849,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,96 +867,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,6 +884,96 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,30 +1319,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1351,24 +1351,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1377,21 +1377,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
-        <v>1661</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="C4" s="40">
+        <v>1671</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f>C4/F4</f>
-        <v>830.5</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+        <v>835.5</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1406,21 +1406,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>4793</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>7</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="39">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1431,21 +1431,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>8207</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>12</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="39">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1456,21 +1456,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>27814</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1481,21 +1481,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="40">
         <v>28448</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40">
         <v>43</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1506,21 +1506,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="40">
         <v>28448</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <v>43</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39">
+      <c r="G9" s="40"/>
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1531,402 +1531,407 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="41">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="34" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="34" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
-        <v>99371</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+        <v>99381</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
-        <v>666.91946308724835</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+        <v>666.98657718120808</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -1943,43 +1948,38 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2010,30 +2010,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2042,24 +2042,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2068,21 +2068,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>5552</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>10</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2097,21 +2097,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>3516</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>6</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="39">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2122,21 +2122,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>61058</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>114</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="39">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2147,21 +2147,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>22994</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2172,21 +2172,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="41">
         <v>42249</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34">
+      <c r="E8" s="42"/>
+      <c r="F8" s="40">
         <v>78</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2197,21 +2197,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39" t="e">
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="34" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2220,366 +2220,425 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="41">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="39" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="39" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="39" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="39" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="39" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="39" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2596,70 +2655,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2690,30 +2690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2722,24 +2722,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2748,15 +2748,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>1670</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
@@ -2775,15 +2775,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34"/>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40"/>
       <c r="H5" s="49" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
@@ -2800,11 +2800,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2821,11 +2821,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2840,11 +2840,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="49" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
@@ -2859,11 +2859,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2878,33 +2878,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="41">
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2917,11 +2917,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2934,11 +2934,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2951,11 +2951,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2968,11 +2968,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2985,11 +2985,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3002,11 +3002,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3019,238 +3019,287 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -3261,68 +3310,19 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3352,20 +3352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3374,15 +3374,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="40" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3391,11 +3391,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>191</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3410,11 +3410,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>223</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3425,11 +3425,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>288</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3440,11 +3440,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>10</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3453,9 +3453,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3464,9 +3464,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3475,114 +3475,108 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="41">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="44">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="42"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="43">
+      <c r="B19" s="37"/>
+      <c r="C19" s="35">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -3598,6 +3592,12 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3628,30 +3628,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3660,24 +3660,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3686,20 +3686,20 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <f>'2x2'!C29</f>
-        <v>99371</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+        <v>99381</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
-        <v>666.91946308724835</v>
+        <v>666.98657718120808</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="51"/>
@@ -3717,17 +3717,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>541.476</v>
@@ -3744,17 +3744,17 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="49">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
@@ -3769,11 +3769,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3788,11 +3788,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3807,11 +3807,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3826,33 +3826,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="82">
+      <c r="L10" s="52">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3865,64 +3865,64 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85" t="e">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="52">
+      <c r="B13" s="69"/>
+      <c r="C13" s="72">
         <f>SUM(C4:C12)</f>
-        <v>236410</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52">
+        <v>236420</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="52">
+      <c r="G13" s="74"/>
+      <c r="H13" s="72">
         <f>C13/F13</f>
-        <v>589.55112219451371</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+        <v>589.57605985037401</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="62">
+      <c r="B15" s="79"/>
+      <c r="C15" s="82">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3930,57 +3930,38 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="72">
+      <c r="B17" s="59"/>
+      <c r="C17" s="62">
         <f>C13+C15</f>
-        <v>237122</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+        <v>237132</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -3993,11 +3974,30 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4036,40 +4036,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -4571,40 +4571,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -5077,8 +5077,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,40 +5102,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -5338,11 +5338,11 @@
       <c r="G8" s="28">
         <v>6</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="33">
         <v>23</v>
       </c>
-      <c r="I8" s="18">
-        <v>0</v>
+      <c r="I8" s="29">
+        <v>3</v>
       </c>
       <c r="J8" s="17">
         <v>30</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O8" s="18">
         <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="I13" s="22">
         <f t="shared" ref="I13" si="3">SUM(I6:I12)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J13" s="19">
         <f>COUNT(J6:J12)</f>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,19 @@
     <sheet name="4x4" sheetId="6" r:id="rId3"/>
     <sheet name="Others" sheetId="8" r:id="rId4"/>
     <sheet name="Overall Total" sheetId="7" r:id="rId5"/>
-    <sheet name="03-2023" sheetId="9" r:id="rId6"/>
-    <sheet name="04-2023" sheetId="12" r:id="rId7"/>
-    <sheet name="05-2023" sheetId="13" r:id="rId8"/>
+    <sheet name="Important Dates" sheetId="16" r:id="rId6"/>
+    <sheet name="03-2023" sheetId="9" r:id="rId7"/>
+    <sheet name="04-2023" sheetId="12" r:id="rId8"/>
+    <sheet name="05-2023" sheetId="13" r:id="rId9"/>
+    <sheet name="06-2023" sheetId="14" r:id="rId10"/>
+    <sheet name="07-2023" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -186,13 +189,91 @@
   </si>
   <si>
     <t>Calculator(Multiplication)</t>
+  </si>
+  <si>
+    <t>Important Days</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Approval of Cube Website (v1)</t>
+  </si>
+  <si>
+    <t>Proposal of Cube Website (v1)</t>
+  </si>
+  <si>
+    <t>Start of Cube Website (v1) Project</t>
+  </si>
+  <si>
+    <t>Completion of 1st Homepage</t>
+  </si>
+  <si>
+    <t>Top Cubes (v1) - Added</t>
+  </si>
+  <si>
+    <t>2x2 Algorithm Set (v1) - Added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x3 Algorithm Set (v1) - Added </t>
+  </si>
+  <si>
+    <t>Top Cubes (v1) - Removed</t>
+  </si>
+  <si>
+    <t>Cube Website - Hosted In Github</t>
+  </si>
+  <si>
+    <t>Reached 50 Commits</t>
+  </si>
+  <si>
+    <t>Reached 100 Commits</t>
+  </si>
+  <si>
+    <t>Cube Website (v2) - Proposed</t>
+  </si>
+  <si>
+    <t>Cube Website (v2) - Approved</t>
+  </si>
+  <si>
+    <t>Cube Website (v2) - Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reached 150 Commits</t>
+  </si>
+  <si>
+    <t>Reached 200 Commits</t>
+  </si>
+  <si>
+    <t>Reached 250 Commits</t>
+  </si>
+  <si>
+    <t>Reached 300 Commits</t>
+  </si>
+  <si>
+    <t>CT-1 Break Starts</t>
+  </si>
+  <si>
+    <t>CT-1 Break Ends</t>
+  </si>
+  <si>
+    <t>Taekwondo-23 Break Starts</t>
+  </si>
+  <si>
+    <t>Taekwondo-23 Break Ends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +459,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,9 +917,33 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,30 +959,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -867,6 +971,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,96 +1079,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,6 +1087,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,13 +1109,13 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFF99"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFF9999"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FF99FF66"/>
       <color rgb="FF000066"/>
       <color rgb="FF660033"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FF800000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1302,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="A1:J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,30 +1435,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1351,24 +1467,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1377,21 +1493,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>1671</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="34"/>
+      <c r="H4" s="39">
         <f>C4/F4</f>
         <v>835.5</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1406,21 +1522,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>4793</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="34"/>
+      <c r="H5" s="39">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1431,21 +1547,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>8207</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>12</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="34"/>
+      <c r="H6" s="39">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1456,21 +1572,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>27814</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="34"/>
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1481,21 +1597,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="34">
         <v>28448</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <v>43</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="34"/>
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1506,21 +1622,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="34">
         <v>28448</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>43</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34">
+      <c r="G9" s="34"/>
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1531,370 +1647,439 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="40">
-        <v>0</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
         <v>99381</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
         <v>666.98657718120808</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -1911,75 +2096,1072 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF000066"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89">
+        <v>45078</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88">
+        <v>4</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="90">
+        <v>30</v>
+      </c>
+      <c r="O3" s="90"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="31">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>11</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>18</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
+        <v>25</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="17">
+        <f>COUNT(B6,D9,F9,H9,J9,L6)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="18">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="31">
+        <v>5</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <v>19</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <v>26</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17">
+        <f>COUNT(B10,D10,F10,H10,J10,L7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="18">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="31">
+        <v>6</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>13</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>20</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <v>27</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="17">
+        <f>COUNT(B11,D11,F11,H11,J11,L8)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O12" si="0">C8+E8+G8+I8+K8+M8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="31">
+        <v>7</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
+        <v>14</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>21</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <v>28</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17">
+        <f>COUNT(B12,D12,F12,H12,#REF!,L9)</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <v>8</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="31">
+        <v>15</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>22</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <v>29</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="17">
+        <f>COUNT(D6,F6,H6,J6,#REF!,L10)</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="31">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
+        <v>9</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
+        <v>16</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>23</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>30</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17">
+        <f>COUNT(D7,F7,H7,J7,#REF!,L11)</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="31">
+        <v>3</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>17</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>24</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17">
+        <f>COUNT(D8,F8,H8,J8,J12,L12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="19">
+        <f>COUNT(B6:B12)</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="22">
+        <f>SUM(C6:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <f>COUNT(D9:D12)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="22">
+        <f>SUM(E9:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f>COUNT(F9:F12)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="22">
+        <f>SUM(G9:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f>COUNT(H9:H12)</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="22">
+        <f>SUM(I9:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f>COUNT(J9:J12)</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="22">
+        <f>SUM(K9:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f>COUNT(L6:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" ref="M13" si="1">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <f>SUM(N6:N12)</f>
+        <v>30</v>
+      </c>
+      <c r="O13" s="25">
+        <f>SUM(O6:O12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF000066"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89">
+        <v>45078</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88">
+        <v>5</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="90">
+        <v>31</v>
+      </c>
+      <c r="O3" s="90"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="31">
+        <v>2</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>9</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>16</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>23</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>30</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <f>COUNT(B6,D6,F6,H6,J6,L6)</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="18">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="31">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>17</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>24</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>31</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <f>COUNT(B7,D7,F7,H7,J7,L7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="18">
+        <f>C7+E7+G7+I7+K7+M7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="31">
+        <v>4</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="17">
+        <f t="shared" ref="N8:N12" si="0">COUNT(B8,D8,F8,H8,J8,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O12" si="1">C8+E8+G8+I8+K8+M8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="31">
+        <v>5</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>19</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>26</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="31">
+        <v>6</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>20</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>27</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="31">
+        <v>7</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>21</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>28</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
+        <v>8</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>15</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>29</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="19">
+        <f>COUNT(B6:B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="22">
+        <f>SUM(C6:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <f>COUNT(D6:D12)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="22">
+        <f>SUM(E6:E12)</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="19">
+        <f>COUNT(F6:F12)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13" si="3">COUNT(H6:H12)</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13" si="4">SUM(I6:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" ref="J13" si="5">COUNT(J6:J12)</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" ref="K13" si="6">SUM(K6:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" ref="L13" si="7">COUNT(L6:L12)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" ref="M13" si="8">SUM(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <f>SUM(N6:N12)</f>
+        <v>31</v>
+      </c>
+      <c r="O13" s="25">
+        <f>SUM(O6:O12)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2010,30 +3192,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2042,24 +3224,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2068,21 +3250,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>5552</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="34"/>
+      <c r="H4" s="39">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -2097,21 +3279,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>3516</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>6</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="34"/>
+      <c r="H5" s="39">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -2122,21 +3304,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>61058</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <v>114</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="34"/>
+      <c r="H6" s="39">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -2147,21 +3329,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>22994</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="34"/>
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -2172,21 +3354,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <v>42249</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40">
+      <c r="E8" s="38"/>
+      <c r="F8" s="34">
         <v>78</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="34"/>
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -2197,21 +3379,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="40">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34" t="e">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="39" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -2220,425 +3402,366 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="39" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="39" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="39" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -2655,11 +3778,70 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2690,30 +3872,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2722,24 +3904,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2748,15 +3930,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>1670</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
@@ -2775,15 +3957,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34"/>
       <c r="H5" s="49" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
@@ -2800,11 +3982,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2821,11 +4003,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2840,11 +4022,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="49" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
@@ -2859,11 +4041,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2878,33 +4060,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="44">
+      <c r="L10" s="41">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2917,11 +4099,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2934,11 +4116,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2951,11 +4133,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2968,11 +4150,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2985,11 +4167,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3002,11 +4184,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3019,225 +4201,300 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="39" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -3248,81 +4505,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3352,20 +4534,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3374,15 +4556,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="G3" s="43" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3391,11 +4573,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <v>191</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -3410,11 +4592,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <v>223</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -3425,11 +4607,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>288</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -3440,11 +4622,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -3453,9 +4635,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -3464,9 +4646,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -3475,108 +4657,114 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="G10" s="44">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="G10" s="41">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35">
+      <c r="B19" s="45"/>
+      <c r="C19" s="43">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -3592,12 +4780,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3628,30 +4810,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3660,24 +4842,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="L3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3686,17 +4868,17 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="34">
         <f>'2x2'!C29</f>
         <v>99381</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>666.98657718120808</v>
@@ -3717,17 +4899,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>541.476</v>
@@ -3744,17 +4926,17 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="49">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
@@ -3769,11 +4951,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3788,11 +4970,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3807,11 +4989,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3826,33 +5008,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="52">
+      <c r="L10" s="82">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3865,64 +5047,64 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55" t="e">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="72">
+      <c r="B13" s="79"/>
+      <c r="C13" s="52">
         <f>SUM(C4:C12)</f>
         <v>236420</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="72">
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72">
+      <c r="G13" s="54"/>
+      <c r="H13" s="52">
         <f>C13/F13</f>
         <v>589.57605985037401</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82">
+      <c r="B15" s="59"/>
+      <c r="C15" s="62">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -3930,38 +5112,57 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="62">
+      <c r="B17" s="69"/>
+      <c r="C17" s="72">
         <f>C13+C15</f>
         <v>237132</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -3974,30 +5175,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4007,12 +5189,606 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF800000"/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="94">
+        <v>43707</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="94">
+        <v>44073</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="94">
+        <v>44438</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="94">
+        <v>44491</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="94">
+        <v>44502</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="94">
+        <v>44541</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="94">
+        <v>44594</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="94">
+        <v>44634</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="94">
+        <v>44779</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="94">
+        <v>44924</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="94">
+        <v>45005</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="94">
+        <v>45009</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="94">
+        <v>45010</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="94">
+        <v>45011</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="94">
+        <v>45028</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="94">
+        <v>45051</v>
+      </c>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="94">
+        <v>45057</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="94">
+        <v>45064</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="94">
+        <v>45070</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="94">
+        <v>45105</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="94">
+        <v>45106</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="94">
+        <v>45113</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="94">
+        <v>51743</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="94">
+        <v>52108</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="94">
+        <v>52473</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="94">
+        <v>52839</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="94">
+        <v>53204</v>
+      </c>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="94">
+        <v>53569</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="94">
+        <v>53934</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="94">
+        <v>54300</v>
+      </c>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="94">
+        <v>54665</v>
+      </c>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF000066"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,40 +5812,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -4539,7 +6315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF000066"/>
@@ -4547,7 +6323,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K12"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,40 +6347,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -4953,10 +6729,10 @@
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="33">
         <v>1</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="29">
         <v>1</v>
       </c>
       <c r="D12" s="31">
@@ -5070,15 +6846,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF000066"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,40 +6878,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
@@ -5254,10 +7030,10 @@
       <c r="I6" s="28">
         <v>19</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="31">
         <v>28</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="30">
         <v>0</v>
       </c>
       <c r="L6" s="20"/>
@@ -5299,10 +7075,10 @@
       <c r="I7" s="29">
         <v>3</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="31">
         <v>29</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="30">
         <v>0</v>
       </c>
       <c r="L7" s="20"/>
@@ -5344,10 +7120,10 @@
       <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="31">
         <v>30</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="30">
         <v>0</v>
       </c>
       <c r="L8" s="20"/>
@@ -5383,16 +7159,16 @@
       <c r="G9" s="29">
         <v>3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="31">
         <v>24</v>
       </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
         <v>31</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="30">
         <v>0</v>
       </c>
       <c r="L9" s="20"/>
@@ -5428,10 +7204,10 @@
       <c r="G10" s="28">
         <v>14</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="31">
         <v>25</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="30">
         <v>0</v>
       </c>
       <c r="J10" s="23"/>
@@ -5469,10 +7245,10 @@
       <c r="G11" s="29">
         <v>5</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="31">
         <v>26</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="30">
         <v>0</v>
       </c>
       <c r="J11" s="23"/>
@@ -5510,10 +7286,10 @@
       <c r="G12" s="29">
         <v>3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="31">
         <v>27</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="20"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -200,15 +200,6 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Approval of Cube Website (v1)</t>
-  </si>
-  <si>
-    <t>Proposal of Cube Website (v1)</t>
-  </si>
-  <si>
-    <t>Start of Cube Website (v1) Project</t>
-  </si>
-  <si>
     <t>Completion of 1st Homepage</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Cube Website (v2) - Updated</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reached 150 Commits</t>
-  </si>
-  <si>
     <t>Reached 200 Commits</t>
   </si>
   <si>
@@ -264,6 +252,42 @@
   </si>
   <si>
     <t>Taekwondo-23 Break Ends</t>
+  </si>
+  <si>
+    <t>Reached 350 Commits</t>
+  </si>
+  <si>
+    <t>Reached 150 Commits</t>
+  </si>
+  <si>
+    <t>Reached 400 Commits</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Cube Website (v1) - Proposed</t>
+  </si>
+  <si>
+    <t>Cube Website (v1) - Approved</t>
+  </si>
+  <si>
+    <t>Cube Website (v1) - Started</t>
+  </si>
+  <si>
+    <t>Days:</t>
+  </si>
+  <si>
+    <t>Commits:</t>
+  </si>
+  <si>
+    <t>Avg. Commits:</t>
   </si>
 </sst>
 </file>
@@ -271,9 +295,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +500,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,8 +654,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -828,11 +896,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,24 +1012,33 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,19 +1048,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,96 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,14 +1084,101 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,12 +1186,62 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,6 +1250,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF9999"/>
@@ -1419,7 +1562,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,30 +1578,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1467,24 +1610,24 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1493,21 +1636,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
-        <v>1671</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="C4" s="40">
+        <v>855</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f>C4/F4</f>
-        <v>835.5</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+        <v>427.5</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1522,21 +1665,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>4793</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>7</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="39">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1547,21 +1690,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>8207</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>12</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="39">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1572,21 +1715,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>27814</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1597,21 +1740,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="40">
         <v>28448</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40">
         <v>43</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1622,21 +1765,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="40">
         <v>28448</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <v>43</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39">
+      <c r="G9" s="40"/>
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1647,402 +1790,407 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="41">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="34" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="34" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
-        <v>99381</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+        <v>98565</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
-        <v>666.98657718120808</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+        <v>661.510067114094</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F26:G26"/>
@@ -2059,43 +2207,38 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2134,86 +2277,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93">
         <v>45078</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
         <v>4</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="90">
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="94">
         <v>30</v>
       </c>
-      <c r="O3" s="90"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2641,7 +2784,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,86 +2808,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93">
         <v>45078</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
         <v>5</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="90">
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="94">
         <v>31</v>
       </c>
-      <c r="O3" s="90"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2809,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="17">
         <v>16</v>
@@ -2835,7 +2978,7 @@
       </c>
       <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,7 +3261,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13" si="3">COUNT(H6:H12)</f>
@@ -3150,7 +3293,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3192,30 +3335,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3224,24 +3367,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3250,21 +3393,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>5552</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>10</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39">
+      <c r="G4" s="40"/>
+      <c r="H4" s="34">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -3279,21 +3422,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>3516</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>6</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="39">
+      <c r="G5" s="40"/>
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -3304,21 +3447,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>61058</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <v>114</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="39">
+      <c r="G6" s="40"/>
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -3329,21 +3472,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>22994</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <v>42</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39">
+      <c r="G7" s="40"/>
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -3354,21 +3497,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="41">
         <v>42249</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34">
+      <c r="E8" s="42"/>
+      <c r="F8" s="40">
         <v>78</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39">
+      <c r="G8" s="40"/>
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -3379,21 +3522,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39" t="e">
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="34" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -3402,366 +3545,425 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39" t="e">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="41">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="39" t="e">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="39" t="e">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="39" t="e">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="39" t="e">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="39" t="e">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="39" t="e">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="34" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="39" t="e">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="34" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -3778,70 +3980,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3872,30 +4015,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3904,24 +4047,24 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3930,15 +4073,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>1670</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
@@ -3957,15 +4100,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34"/>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40"/>
       <c r="H5" s="49" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
@@ -3982,11 +4125,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4003,11 +4146,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4022,11 +4165,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="49" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
@@ -4041,11 +4184,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4060,33 +4203,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="41">
+      <c r="L10" s="44">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4099,11 +4242,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4116,11 +4259,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4133,11 +4276,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4150,11 +4293,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4167,11 +4310,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4184,11 +4327,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="49" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4201,238 +4344,287 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39" t="e">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39" t="e">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39" t="e">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39" t="e">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="39" t="e">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="39" t="e">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="39" t="e">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="39" t="e">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="39" t="e">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="39" t="e">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="39" t="e">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -4443,68 +4635,19 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4534,20 +4677,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4556,15 +4699,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="40" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -4573,11 +4716,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <v>191</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -4592,11 +4735,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>223</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -4607,11 +4750,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>288</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -4622,11 +4765,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>10</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -4635,9 +4778,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -4646,9 +4789,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -4657,114 +4800,108 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="41">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="44">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="42"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="43">
+      <c r="B19" s="37"/>
+      <c r="C19" s="35">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -4780,6 +4917,12 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4810,30 +4953,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4842,24 +4985,24 @@
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="L3" s="40" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -4868,20 +5011,20 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="40">
         <f>'2x2'!C29</f>
-        <v>99381</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+        <v>98565</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="49">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
-        <v>666.98657718120808</v>
+        <v>661.510067114094</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="51"/>
@@ -4899,17 +5042,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>541.476</v>
@@ -4926,17 +5069,17 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="49">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
@@ -4951,11 +5094,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4970,11 +5113,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4989,11 +5132,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5008,33 +5151,33 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
-      <c r="L10" s="82">
+      <c r="L10" s="52">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5047,64 +5190,64 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85" t="e">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="52">
+      <c r="B13" s="69"/>
+      <c r="C13" s="72">
         <f>SUM(C4:C12)</f>
-        <v>236420</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52">
+        <v>235604</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="52">
+      <c r="G13" s="74"/>
+      <c r="H13" s="72">
         <f>C13/F13</f>
-        <v>589.57605985037401</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+        <v>587.54114713216961</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="62">
+      <c r="B15" s="79"/>
+      <c r="C15" s="82">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -5112,57 +5255,38 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="72">
+      <c r="B17" s="59"/>
+      <c r="C17" s="62">
         <f>C13+C15</f>
-        <v>237132</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+        <v>236316</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -5175,11 +5299,30 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5191,579 +5334,652 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13.140625" style="96" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="96" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="96" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="L1" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="111">
+        <f>SUM(M5:M20)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="94">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="111">
+        <f>SUM(N5:N20)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88">
         <v>43707</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="93" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="111">
+        <f>P2/P1</f>
+        <v>1.6013071895424837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="95" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="108">
+        <v>44073</v>
+      </c>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="L4" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="88">
+        <v>44438</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="L5" s="97">
+        <f>'03-2023'!D3</f>
+        <v>44986</v>
+      </c>
+      <c r="M5" s="26">
+        <f>'03-2023'!N3</f>
+        <v>31</v>
+      </c>
+      <c r="N5" s="26">
+        <f>'03-2023'!O13</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="88">
+        <v>44491</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="L6" s="97">
+        <f>'04-2023'!D3</f>
+        <v>45017</v>
+      </c>
+      <c r="M6" s="26">
+        <f>'04-2023'!N3</f>
+        <v>30</v>
+      </c>
+      <c r="N6" s="26">
+        <f>'04-2023'!O13</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
+        <v>44502</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="94">
-        <v>44073</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="94">
-        <v>44438</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="93" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="L7" s="97">
+        <f>'05-2023'!D3</f>
+        <v>45047</v>
+      </c>
+      <c r="M7" s="26">
+        <f>'05-2023'!N3</f>
+        <v>31</v>
+      </c>
+      <c r="N7" s="26">
+        <f>'05-2023'!O13</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="88">
+        <v>44541</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="94">
-        <v>44491</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="L8" s="97">
+        <f>'06-2023'!D3</f>
+        <v>45078</v>
+      </c>
+      <c r="M8" s="26">
+        <f>'06-2023'!N3</f>
+        <v>30</v>
+      </c>
+      <c r="N8" s="26">
+        <f>'06-2023'!O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="88">
+        <v>44594</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
-        <v>44502</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="93" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="L9" s="97">
+        <f>'07-2023'!D3</f>
+        <v>45078</v>
+      </c>
+      <c r="M9" s="26">
+        <f>'07-2023'!N3</f>
+        <v>31</v>
+      </c>
+      <c r="N9" s="26">
+        <f>'07-2023'!O13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="88">
+        <v>44634</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="94">
-        <v>44541</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="93" t="s">
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="88">
+        <v>44779</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
-        <v>44594</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="93" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="88">
+        <v>44867</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="94">
-        <v>44634</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="93" t="s">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="88">
+        <v>44924</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="94">
-        <v>44779</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93" t="s">
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="88">
+        <v>45005</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="88">
+        <v>45009</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="94">
-        <v>44924</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="93" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="88">
+        <v>45010</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="94">
-        <v>45005</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="93" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="88">
+        <v>45011</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="94">
-        <v>45009</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="93" t="s">
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="88">
+        <v>45028</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="94">
-        <v>45010</v>
-      </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="93" t="s">
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="88">
+        <v>45051</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="94">
-        <v>45011</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="93" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="88">
+        <v>45057</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="94">
-        <v>45028</v>
-      </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="93" t="s">
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="88">
+        <v>45064</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="88">
+        <v>45070</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="88">
+        <v>45105</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="88">
+        <v>45106</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="94">
-        <v>45051</v>
-      </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="93" t="s">
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="88">
+        <v>45113</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="94">
-        <v>45057</v>
-      </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="94">
-        <v>45064</v>
-      </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="94">
-        <v>45070</v>
-      </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="93" t="s">
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="88">
+        <v>45116</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="94">
-        <v>45105</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="94">
-        <v>45106</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="94">
-        <v>45113</v>
-      </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="94">
-        <v>51743</v>
-      </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
-        <v>52108</v>
-      </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="94">
-        <v>52473</v>
-      </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="A27" s="88">
+        <v>0</v>
+      </c>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="94">
-        <v>52839</v>
-      </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
+      <c r="A28" s="88">
+        <v>0</v>
+      </c>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="94">
-        <v>53204</v>
-      </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="A29" s="88">
+        <v>0</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="94">
-        <v>53569</v>
-      </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="A30" s="88">
+        <v>0</v>
+      </c>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="94">
-        <v>53934</v>
-      </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
+      <c r="A31" s="88">
+        <v>0</v>
+      </c>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="94">
-        <v>54300</v>
-      </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
+      <c r="A32" s="88">
+        <v>0</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="94">
-        <v>54665</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
+      <c r="A33" s="88">
+        <v>0</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="88">
+        <v>0</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
+  <mergeCells count="68">
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="L1:N3"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="A1:J1"/>
@@ -5774,6 +5990,61 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5788,7 +6059,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,86 +6083,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93">
         <v>44986</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
         <v>1</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="90">
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="94">
         <v>31</v>
       </c>
-      <c r="O3" s="90"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6347,86 +6618,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93">
         <v>45017</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
         <v>2</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="90">
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="94">
         <v>30</v>
       </c>
-      <c r="O3" s="90"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6878,86 +7149,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93">
         <v>45047</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92">
         <v>3</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="90">
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="94">
         <v>31</v>
       </c>
-      <c r="O3" s="90"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="97">
   <si>
     <t>Adarsh Pro Cuber Website</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Cube Website (v2) - Approved</t>
   </si>
   <si>
-    <t>Cube Website (v2) - Updated</t>
-  </si>
-  <si>
     <t>Reached 200 Commits</t>
   </si>
   <si>
@@ -288,6 +285,36 @@
   </si>
   <si>
     <t>Avg. Commits:</t>
+  </si>
+  <si>
+    <t>Algorithm (v1) - Proposed</t>
+  </si>
+  <si>
+    <t>Algorithm (v1) - Added</t>
+  </si>
+  <si>
+    <t>Algorithm (v1) - Approved</t>
+  </si>
+  <si>
+    <t>Algorithm (v1) - Updated (v2)</t>
+  </si>
+  <si>
+    <t>Cube Website (v1) - Updated (v2)</t>
+  </si>
+  <si>
+    <t>Algorithm (v2) - Bugs Fixed (v2.070)</t>
+  </si>
+  <si>
+    <t>Algorithm (v3.862) - Updated (v4)</t>
+  </si>
+  <si>
+    <t>Algorithm (v2.070) - Updated (v3)</t>
+  </si>
+  <si>
+    <t>Algorithm (v3) - Bugs Fixed (v3.862)</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
 </sst>
 </file>
@@ -297,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,8 +559,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,6 +1235,24 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,7 +1299,31 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2784,7 +2866,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2932,7 @@
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
       <c r="D3" s="93">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="E3" s="93"/>
       <c r="F3" s="92" t="s">
@@ -2948,11 +3030,11 @@
       <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="33">
         <v>9</v>
       </c>
-      <c r="G6" s="18">
-        <v>2</v>
+      <c r="G6" s="29">
+        <v>3</v>
       </c>
       <c r="H6" s="17">
         <v>16</v>
@@ -2978,7 +3060,7 @@
       </c>
       <c r="O6" s="18">
         <f>C6+E6+G6+I6+K6+M6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,7 +3343,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13" si="3">COUNT(H6:H12)</f>
@@ -3293,7 +3375,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5334,21 +5416,22 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="13.140625" style="96" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="96" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="96" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="102" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="102" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="102" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>55</v>
       </c>
@@ -5361,20 +5444,21 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="L1" s="98" t="s">
+      <c r="K1" s="122"/>
+      <c r="M1" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="111">
-        <f>SUM(M5:M20)</f>
+      <c r="N1" s="105"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="117">
+        <f>SUM(N5:N21)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>56</v>
       </c>
@@ -5389,18 +5473,19 @@
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="J2" s="91"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="111">
-        <f>SUM(N5:N20)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="123"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="117">
+        <f>SUM(O5:O21)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88">
         <v>43707</v>
       </c>
@@ -5409,49 +5494,51 @@
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
       <c r="J3" s="89"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="111">
-        <f>P2/P1</f>
-        <v>1.6013071895424837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="95" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="108">
+      <c r="K3" s="118"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="117">
+        <f>Q2/Q1</f>
+        <v>1.607843137254902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="101" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="114">
         <v>44073</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="L4" s="107" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="119"/>
+      <c r="M4" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="O4" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="107" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="88">
         <v>44438</v>
       </c>
@@ -5460,26 +5547,30 @@
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="89"/>
-      <c r="L5" s="97">
+      <c r="K5" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="103">
         <f>'03-2023'!D3</f>
         <v>44986</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="26">
         <f>'03-2023'!N3</f>
         <v>31</v>
       </c>
-      <c r="N5" s="26">
+      <c r="O5" s="26">
         <f>'03-2023'!O13</f>
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="88">
         <v>44491</v>
       </c>
@@ -5494,20 +5585,21 @@
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
       <c r="J6" s="89"/>
-      <c r="L6" s="97">
+      <c r="K6" s="118"/>
+      <c r="M6" s="103">
         <f>'04-2023'!D3</f>
         <v>45017</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <f>'04-2023'!N3</f>
         <v>30</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <f>'04-2023'!O13</f>
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>44502</v>
       </c>
@@ -5522,466 +5614,642 @@
       <c r="H7" s="89"/>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
-      <c r="L7" s="97">
+      <c r="K7" s="118"/>
+      <c r="M7" s="103">
         <f>'05-2023'!D3</f>
         <v>45047</v>
       </c>
-      <c r="M7" s="26">
+      <c r="N7" s="26">
         <f>'05-2023'!N3</f>
         <v>31</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <f>'05-2023'!O13</f>
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="88">
-        <v>44541</v>
+        <v>44537</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88"/>
       <c r="F8" s="89" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
-      <c r="L8" s="97">
+      <c r="K8" s="118"/>
+      <c r="M8" s="103">
         <f>'06-2023'!D3</f>
         <v>45078</v>
       </c>
-      <c r="M8" s="26">
+      <c r="N8" s="26">
         <f>'06-2023'!N3</f>
         <v>30</v>
       </c>
-      <c r="N8" s="26">
+      <c r="O8" s="26">
         <f>'06-2023'!O13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="88">
-        <v>44594</v>
+        <v>44538</v>
       </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
       <c r="E9" s="88"/>
       <c r="F9" s="89" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
-      <c r="L9" s="97">
+      <c r="K9" s="118"/>
+      <c r="M9" s="103">
         <f>'07-2023'!D3</f>
-        <v>45078</v>
-      </c>
-      <c r="M9" s="26">
+        <v>45108</v>
+      </c>
+      <c r="N9" s="26">
         <f>'07-2023'!N3</f>
         <v>31</v>
       </c>
-      <c r="N9" s="26">
+      <c r="O9" s="26">
         <f>'07-2023'!O13</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="88">
-        <v>44634</v>
+        <v>44539</v>
       </c>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
       <c r="J10" s="89"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10" s="118"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
-        <v>44779</v>
+        <v>44541</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
       <c r="F11" s="89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="118"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="88">
-        <v>44867</v>
+        <v>44594</v>
       </c>
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
       <c r="F12" s="89" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
       <c r="I12" s="89"/>
       <c r="J12" s="89"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
-        <v>44924</v>
+        <v>44634</v>
       </c>
       <c r="B13" s="88"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="118"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="88">
-        <v>45005</v>
+        <v>44779</v>
       </c>
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
       <c r="F14" s="89" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89"/>
       <c r="J14" s="89"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="118"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="88">
-        <v>45009</v>
+        <v>44867</v>
       </c>
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
       <c r="F15" s="89" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="89"/>
       <c r="H15" s="89"/>
       <c r="I15" s="89"/>
       <c r="J15" s="89"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="118"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
-        <v>45010</v>
+        <v>44924</v>
       </c>
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
       <c r="F16" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
       <c r="I16" s="89"/>
       <c r="J16" s="89"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="118"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="88">
-        <v>45011</v>
+        <v>44637</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
       <c r="F17" s="89" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
       <c r="I17" s="89"/>
       <c r="J17" s="89"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="118"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="88">
-        <v>45028</v>
+        <v>45005</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
       <c r="F18" s="89" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G18" s="89"/>
       <c r="H18" s="89"/>
       <c r="I18" s="89"/>
       <c r="J18" s="89"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="118"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="88">
-        <v>45051</v>
+        <v>45009</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
       <c r="F19" s="89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="89"/>
       <c r="H19" s="89"/>
       <c r="I19" s="89"/>
       <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="118"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="88">
-        <v>45057</v>
+        <v>45010</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
       <c r="F20" s="89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="89"/>
       <c r="H20" s="89"/>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="118"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="88">
-        <v>45064</v>
+        <v>45011</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
       <c r="E21" s="88"/>
       <c r="F21" s="89" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G21" s="89"/>
       <c r="H21" s="89"/>
       <c r="I21" s="89"/>
       <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="88">
-        <v>45070</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="118"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="95">
+        <v>45013</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="118"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="88">
-        <v>45105</v>
+        <v>45028</v>
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
       <c r="E23" s="88"/>
       <c r="F23" s="89" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G23" s="89"/>
       <c r="H23" s="89"/>
       <c r="I23" s="89"/>
       <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="118"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="88">
-        <v>45106</v>
+        <v>45051</v>
       </c>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
       <c r="D24" s="88"/>
       <c r="E24" s="88"/>
       <c r="F24" s="89" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
       <c r="I24" s="89"/>
       <c r="J24" s="89"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
-        <v>45113</v>
-      </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
+      <c r="K24" s="118"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="95">
+        <v>45056</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="89" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89"/>
       <c r="J25" s="89"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="118"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="88">
-        <v>45116</v>
+        <v>45057</v>
       </c>
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
       <c r="I26" s="89"/>
       <c r="J26" s="89"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
-        <v>0</v>
-      </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="118"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="95">
+        <v>45059</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="118"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="88">
-        <v>0</v>
+        <v>45064</v>
       </c>
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="F28" s="89" t="s">
+        <v>75</v>
+      </c>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="89"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="118"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="88">
-        <v>0</v>
+        <v>45070</v>
       </c>
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="118"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="88">
-        <v>0</v>
+        <v>45105</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
       <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="118"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="88">
-        <v>0</v>
+        <v>45106</v>
       </c>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
       <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="125"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="88">
-        <v>0</v>
+        <v>45113</v>
       </c>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
       <c r="D32" s="88"/>
       <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="88">
-        <v>0</v>
-      </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
+      <c r="F32" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="118"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="95">
+        <v>45114</v>
+      </c>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="89" t="s">
+        <v>93</v>
+      </c>
       <c r="G33" s="89"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="118"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="88">
-        <v>0</v>
+        <v>45116</v>
       </c>
       <c r="B34" s="88"/>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
       <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="89" t="s">
+        <v>77</v>
+      </c>
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
+      <c r="K34" s="118"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="88">
+        <v>0</v>
+      </c>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="118"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="88">
+        <v>0</v>
+      </c>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="118"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="88">
+        <v>0</v>
+      </c>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="118"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="88">
+        <v>0</v>
+      </c>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="118"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="88">
+        <v>0</v>
+      </c>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="118"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="88">
+        <v>0</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="118"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="88">
+        <v>0</v>
+      </c>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="118"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="88">
+        <v>0</v>
+      </c>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="L1:N3"/>
+  <mergeCells count="85">
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="M1:O3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -5995,56 +6263,61 @@
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:J41"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:J36"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="F31:J31"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/0007_Excel.xlsx
+++ b/0007_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="1" r:id="rId1"/>
@@ -1052,207 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,41 +1059,8 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,22 +1072,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,11 +1332,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF66"/>
       <color rgb="FF000066"/>
       <color rgb="FF660033"/>
@@ -1706,10 +1706,10 @@
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1718,21 +1718,21 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="45">
         <v>855</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="45"/>
+      <c r="H4" s="50">
         <f>C4/F4</f>
         <v>427.5</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
       <c r="L4" s="6">
         <v>21</v>
       </c>
@@ -1747,21 +1747,21 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="45">
         <v>4793</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="45"/>
+      <c r="H5" s="50">
         <f>C5/F5</f>
         <v>684.71428571428567</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -1772,21 +1772,21 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="45">
         <v>8207</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45">
         <v>12</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="45"/>
+      <c r="H6" s="50">
         <f t="shared" ref="H6:H27" si="0">C6/F6</f>
         <v>683.91666666666663</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -1797,21 +1797,21 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="45">
         <v>27814</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="45"/>
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>662.23809523809518</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -1822,21 +1822,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="45">
         <v>28448</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45">
         <v>43</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="45"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -1847,21 +1847,21 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="45">
         <v>28448</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45">
         <v>43</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34">
+      <c r="G9" s="45"/>
+      <c r="H9" s="50">
         <f t="shared" si="0"/>
         <v>661.58139534883719</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -1872,370 +1872,439 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="40">
-        <v>0</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="L10" s="52">
         <f>SUM(L4:M9)</f>
         <v>78</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="e">
         <f>C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50" t="e">
         <f>C12/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="e">
         <f t="shared" ref="H13:H16" si="1">C13/F13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50" t="e">
         <f t="shared" ref="H28" si="2">C28/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="56"/>
+      <c r="C29" s="54">
         <f>SUM($C$4:C28)</f>
         <v>98565</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54">
         <f>SUM($F$4:F28)</f>
         <v>149</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="54"/>
+      <c r="H29" s="54">
         <f>C29/F29</f>
         <v>661.510067114094</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C16:E16"/>
@@ -2252,75 +2321,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2395,50 +2395,50 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124">
         <v>45078</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123">
         <v>4</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="94">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="125">
         <v>30</v>
       </c>
-      <c r="O3" s="94"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2865,8 +2865,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,50 +2926,50 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124">
         <v>45108</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123">
         <v>5</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="94">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="125">
         <v>31</v>
       </c>
-      <c r="O3" s="94"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3075,11 +3075,11 @@
       <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="32">
         <v>10</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
+      <c r="G7" s="28">
+        <v>9</v>
       </c>
       <c r="H7" s="17">
         <v>17</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O7" s="18">
         <f>C7+E7+G7+I7+K7+M7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" ref="G13" si="2">SUM(G6:G12)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13" si="3">COUNT(H6:H12)</f>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="O13" s="25">
         <f>SUM(O6:O12)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3463,10 +3463,10 @@
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3475,21 +3475,21 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="45">
         <v>5552</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45">
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34">
+      <c r="G4" s="45"/>
+      <c r="H4" s="50">
         <f t="shared" ref="H4:H8" si="0">C4/F4</f>
         <v>555.20000000000005</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
       <c r="L4" s="6">
         <v>11599</v>
       </c>
@@ -3504,21 +3504,21 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="45">
         <v>3516</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <v>6</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34">
+      <c r="G5" s="45"/>
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
@@ -3529,21 +3529,21 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="45">
         <v>61058</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45">
         <v>114</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="34">
+      <c r="G6" s="45"/>
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>535.59649122807014</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
@@ -3554,21 +3554,21 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="45">
         <v>22994</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <v>42</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="34">
+      <c r="G7" s="45"/>
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>547.47619047619048</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -3579,21 +3579,21 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="48">
         <v>42249</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40">
+      <c r="D8" s="59"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="45">
         <v>78</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34">
+      <c r="G8" s="45"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>541.65384615384619</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -3604,21 +3604,21 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="40">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34" t="e">
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="50" t="e">
         <f t="shared" ref="H9:H10" si="1">C9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -3627,425 +3627,366 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="e">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="44">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="L10" s="52">
         <f>SUM(L4:M9)</f>
         <v>22994</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="34" t="e">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="50" t="e">
         <f t="shared" ref="H11:H15" si="2">C11/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34" t="e">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="34" t="e">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="34" t="e">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="34" t="e">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34" t="e">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="50" t="e">
         <f t="shared" ref="H16" si="3">C16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34" t="e">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="50" t="e">
         <f t="shared" ref="H17:H28" si="4">C17/F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="56"/>
+      <c r="C29" s="54">
         <f>SUM($C$4:C28)</f>
         <v>135369</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54">
         <f>SUM($F$4:F28)</f>
         <v>250</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="54"/>
+      <c r="H29" s="54">
         <f>C29/F29</f>
         <v>541.476</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:J30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -4062,11 +4003,70 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:J30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4143,10 +4143,10 @@
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -4155,21 +4155,21 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="45">
         <v>1670</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="49">
+      <c r="G4" s="45"/>
+      <c r="H4" s="60">
         <f t="shared" ref="H4" si="0">C4/F4</f>
         <v>835</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
         <v>-24</v>
@@ -4182,21 +4182,21 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="49" t="e">
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="60" t="e">
         <f t="shared" ref="H5:H7" si="1">C5/F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
         <v>71</v>
@@ -4207,17 +4207,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="49" t="e">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6">
         <v>-8</v>
@@ -4228,17 +4228,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="49" t="e">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -4247,17 +4247,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="49" t="e">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="60" t="e">
         <f t="shared" ref="H8:H17" si="2">C8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
@@ -4266,17 +4266,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="49" t="e">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
@@ -4285,366 +4285,441 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="49" t="e">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="L10" s="44">
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="L10" s="52">
         <f>SUM(L4:M9)</f>
         <v>39</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="49" t="e">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="49" t="e">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="49" t="e">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="49" t="e">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="49" t="e">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="49" t="e">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="49" t="e">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="e">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="50" t="e">
         <f t="shared" ref="H18:H28" si="3">C18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="e">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34" t="e">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="e">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34" t="e">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="e">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="e">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="e">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="e">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="e">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="e">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="50" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35">
+      <c r="B29" s="56"/>
+      <c r="C29" s="54">
         <f>SUM($C$4:C28)</f>
         <v>1670</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54">
         <f>SUM($F$4:F28)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
+      <c r="G29" s="54"/>
+      <c r="H29" s="54">
         <f>C29/F29</f>
         <v>835</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G30"/>
@@ -4655,81 +4730,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4786,10 +4786,10 @@
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="43"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -4798,11 +4798,11 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="45">
         <v>191</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="G4" s="6">
         <v>21</v>
       </c>
@@ -4817,11 +4817,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="45">
         <v>223</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -4832,11 +4832,11 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="45">
         <v>288</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -4847,11 +4847,11 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="45">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -4860,9 +4860,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -4871,9 +4871,9 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -4882,108 +4882,114 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="G10" s="44">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="G10" s="52">
         <f>PRODUCT(G4:H9)</f>
         <v>1197</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35">
+      <c r="B19" s="56"/>
+      <c r="C19" s="54">
         <f>SUM($C$4:C18)</f>
         <v>712</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
@@ -4999,12 +5005,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5081,10 +5081,10 @@
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -5093,23 +5093,23 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="45">
         <f>'2x2'!C29</f>
         <v>98565</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45">
         <f>'2x2'!F29</f>
         <v>149</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="49">
+      <c r="G4" s="45"/>
+      <c r="H4" s="60">
         <f t="shared" ref="H4:H5" si="0">C4/F4</f>
         <v>661.510067114094</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
       <c r="L4" s="26">
         <v>1456</v>
       </c>
@@ -5124,23 +5124,23 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="45">
         <f>'3x3'!C29</f>
         <v>135369</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <f>'3x3'!F29</f>
         <v>250</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="49">
+      <c r="G5" s="45"/>
+      <c r="H5" s="60">
         <f t="shared" si="0"/>
         <v>541.476</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
@@ -5151,23 +5151,23 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="45">
         <f>'4x4'!C29</f>
         <v>1670</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45">
         <f>'4x4'!F29</f>
         <v>2</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="49">
+      <c r="G6" s="45"/>
+      <c r="H6" s="60">
         <f t="shared" ref="H6:H12" si="1">C6/F6</f>
         <v>835</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
@@ -5176,17 +5176,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="49" t="e">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
@@ -5195,17 +5195,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="49" t="e">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
@@ -5214,17 +5214,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="49" t="e">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
@@ -5233,103 +5233,103 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="49" t="e">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="L10" s="52">
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="L10" s="93">
         <f>PRODUCT(L4:M9)</f>
         <v>33488</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="94"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="49" t="e">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55" t="e">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="72">
+      <c r="B13" s="90"/>
+      <c r="C13" s="63">
         <f>SUM(C4:C12)</f>
         <v>235604</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="72">
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63">
         <f>SUM(F4:F12)</f>
         <v>401</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72">
+      <c r="G13" s="65"/>
+      <c r="H13" s="63">
         <f>C13/F13</f>
         <v>587.54114713216961</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82">
+      <c r="B15" s="70"/>
+      <c r="C15" s="73">
         <f>Others!C19</f>
         <v>712</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -5337,38 +5337,57 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="62">
+      <c r="B17" s="80"/>
+      <c r="C17" s="83">
         <f>C13+C15</f>
         <v>236316</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -5381,30 +5400,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5418,146 +5418,146 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F29" sqref="F29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="102" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="102" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="102" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="35" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="122"/>
-      <c r="M1" s="104" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="42"/>
+      <c r="M1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="116" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="117">
+      <c r="Q1" s="39">
         <f>SUM(N5:N21)</f>
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="123"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="116" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="43"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="117">
+      <c r="Q2" s="39">
         <f>SUM(O5:O21)</f>
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+      <c r="A3" s="106">
         <v>43707</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="118"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="116" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="40"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="117">
+      <c r="Q3" s="39">
         <f>Q2/Q1</f>
-        <v>1.607843137254902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="101" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="114">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="120">
         <v>44073</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="119"/>
-      <c r="M4" s="113" t="s">
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+      <c r="A5" s="106">
         <v>44438</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="120" t="s">
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="103">
+      <c r="L5" s="117"/>
+      <c r="M5" s="36">
         <f>'03-2023'!D3</f>
         <v>44986</v>
       </c>
@@ -5571,22 +5571,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+      <c r="A6" s="106">
         <v>44491</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="118"/>
-      <c r="M6" s="103">
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="36">
         <f>'04-2023'!D3</f>
         <v>45017</v>
       </c>
@@ -5600,22 +5600,22 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+      <c r="A7" s="106">
         <v>44502</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="118"/>
-      <c r="M7" s="103">
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="40"/>
+      <c r="M7" s="36">
         <f>'05-2023'!D3</f>
         <v>45047</v>
       </c>
@@ -5629,22 +5629,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="A8" s="106">
         <v>44537</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="118"/>
-      <c r="M8" s="103">
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="40"/>
+      <c r="M8" s="36">
         <f>'06-2023'!D3</f>
         <v>45078</v>
       </c>
@@ -5658,22 +5658,22 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="A9" s="106">
         <v>44538</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="118"/>
-      <c r="M9" s="103">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="40"/>
+      <c r="M9" s="36">
         <f>'07-2023'!D3</f>
         <v>45108</v>
       </c>
@@ -5683,561 +5683,609 @@
       </c>
       <c r="O9" s="26">
         <f>'07-2023'!O13</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+      <c r="A10" s="106">
         <v>44539</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="118"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+      <c r="A11" s="106">
         <v>44541</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="118"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="88">
+      <c r="A12" s="106">
         <v>44594</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="118"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+      <c r="A13" s="106">
         <v>44634</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="118"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+      <c r="A14" s="106">
         <v>44779</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="118"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="88">
+      <c r="A15" s="106">
         <v>44867</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="118"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="88">
+      <c r="A16" s="106">
         <v>44924</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="118"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="88">
+      <c r="A17" s="106">
         <v>44637</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="118"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="88">
+      <c r="A18" s="106">
         <v>45005</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="118"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+      <c r="A19" s="106">
         <v>45009</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="118"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="88">
+      <c r="A20" s="106">
         <v>45010</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="118"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+      <c r="A21" s="106">
         <v>45011</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="118"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
+      <c r="A22" s="99">
         <v>45013</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="118"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="88">
+      <c r="A23" s="106">
         <v>45028</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="118"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="88">
+      <c r="A24" s="106">
         <v>45051</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="118"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="95">
+      <c r="A25" s="99">
         <v>45056</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="89" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="118"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="88">
+      <c r="A26" s="106">
         <v>45057</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="118"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="95">
+      <c r="A27" s="99">
         <v>45059</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="118"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="88">
+      <c r="A28" s="106">
         <v>45064</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="118"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+      <c r="A29" s="106">
         <v>45070</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="120" t="s">
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="118"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="88">
+      <c r="A30" s="106">
         <v>45105</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="120" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="118"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="88">
+      <c r="A31" s="106">
         <v>45106</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="120" t="s">
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="125"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="88">
+      <c r="A32" s="106">
         <v>45113</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="120" t="s">
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="118"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="95">
+      <c r="A33" s="99">
         <v>45114</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="89" t="s">
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="118"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="88">
+      <c r="A34" s="106">
         <v>45116</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="118"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
-        <v>0</v>
-      </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="118"/>
+      <c r="A35" s="106">
+        <v>0</v>
+      </c>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="88">
-        <v>0</v>
-      </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="118"/>
+      <c r="A36" s="106">
+        <v>0</v>
+      </c>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="88">
-        <v>0</v>
-      </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="118"/>
+      <c r="A37" s="106">
+        <v>0</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="88">
-        <v>0</v>
-      </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="118"/>
+      <c r="A38" s="106">
+        <v>0</v>
+      </c>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="88">
-        <v>0</v>
-      </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="118"/>
+      <c r="A39" s="106">
+        <v>0</v>
+      </c>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="88">
-        <v>0</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="118"/>
+      <c r="A40" s="106">
+        <v>0</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
-        <v>0</v>
-      </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="118"/>
+      <c r="A41" s="106">
+        <v>0</v>
+      </c>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="88">
-        <v>0</v>
-      </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="118"/>
+      <c r="A42" s="106">
+        <v>0</v>
+      </c>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="M1:O3"/>
@@ -6254,36 +6302,11 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F33:J33"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="F32:J32"/>
     <mergeCell ref="A24:E24"/>
@@ -6294,30 +6317,7 @@
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:J39"/>
     <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6392,50 +6392,50 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124">
         <v>44986</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123">
         <v>1</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="94">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="125">
         <v>31</v>
       </c>
-      <c r="O3" s="94"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6927,50 +6927,50 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124">
         <v>45017</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123">
         <v>2</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="94">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="125">
         <v>30</v>
       </c>
-      <c r="O3" s="94"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7458,50 +7458,50 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124">
         <v>45047</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123">
         <v>3</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="94">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="125">
         <v>31</v>
       </c>
-      <c r="O3" s="94"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
